--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>JMIA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44000</v>
+        <v>54600</v>
       </c>
       <c r="E8" s="3">
-        <v>43000</v>
+        <v>44400</v>
       </c>
       <c r="F8" s="3">
-        <v>34900</v>
+        <v>43400</v>
       </c>
       <c r="G8" s="3">
-        <v>48100</v>
+        <v>35200</v>
       </c>
       <c r="H8" s="3">
-        <v>36900</v>
+        <v>47000</v>
       </c>
       <c r="I8" s="3">
-        <v>27200</v>
+        <v>37200</v>
       </c>
       <c r="J8" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K8" s="3">
         <v>31100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24100</v>
+        <v>27100</v>
       </c>
       <c r="E9" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="F9" s="3">
-        <v>17800</v>
+        <v>24300</v>
       </c>
       <c r="G9" s="3">
-        <v>30900</v>
+        <v>17900</v>
       </c>
       <c r="H9" s="3">
-        <v>23200</v>
+        <v>31100</v>
       </c>
       <c r="I9" s="3">
-        <v>17500</v>
+        <v>23400</v>
       </c>
       <c r="J9" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K9" s="3">
         <v>21700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19900</v>
+        <v>27500</v>
       </c>
       <c r="E10" s="3">
-        <v>18900</v>
+        <v>20100</v>
       </c>
       <c r="F10" s="3">
-        <v>17200</v>
+        <v>19100</v>
       </c>
       <c r="G10" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="H10" s="3">
-        <v>13700</v>
+        <v>15900</v>
       </c>
       <c r="I10" s="3">
-        <v>9800</v>
+        <v>13800</v>
       </c>
       <c r="J10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K10" s="3">
         <v>9300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,22 +964,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>103900</v>
+        <v>122300</v>
       </c>
       <c r="E17" s="3">
-        <v>116300</v>
+        <v>104900</v>
       </c>
       <c r="F17" s="3">
-        <v>84900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
+        <v>117300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>85700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>8</v>
@@ -968,22 +994,25 @@
       <c r="K17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-59900</v>
+        <v>-67700</v>
       </c>
       <c r="E18" s="3">
-        <v>-73200</v>
+        <v>-60400</v>
       </c>
       <c r="F18" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
+        <v>-73900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-50400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
@@ -997,8 +1026,11 @@
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,23 +1042,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>4900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1039,22 +1072,25 @@
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-52800</v>
+        <v>-67200</v>
       </c>
       <c r="E21" s="3">
-        <v>-72300</v>
+        <v>-53200</v>
       </c>
       <c r="F21" s="3">
-        <v>-48300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
+        <v>-72900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-48800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,22 +1136,25 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-55000</v>
+        <v>-69900</v>
       </c>
       <c r="E23" s="3">
-        <v>-74200</v>
+        <v>-55500</v>
       </c>
       <c r="F23" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
+        <v>-74900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-50600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>8</v>
@@ -1120,43 +1162,49 @@
       <c r="I23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>-37300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,22 +1232,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-54800</v>
+        <v>-70400</v>
       </c>
       <c r="E26" s="3">
-        <v>-74400</v>
+        <v>-55300</v>
       </c>
       <c r="F26" s="3">
-        <v>-50300</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
+        <v>-75100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-50700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>8</v>
@@ -1213,22 +1264,25 @@
       <c r="K26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-54700</v>
+        <v>-70300</v>
       </c>
       <c r="E27" s="3">
-        <v>-74300</v>
+        <v>-55200</v>
       </c>
       <c r="F27" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
+        <v>-75000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-50700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>8</v>
@@ -1242,8 +1296,11 @@
       <c r="K27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,23 +1424,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1387,22 +1456,25 @@
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-54700</v>
+        <v>-70300</v>
       </c>
       <c r="E33" s="3">
-        <v>-74300</v>
+        <v>-55200</v>
       </c>
       <c r="F33" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
+        <v>-75000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-50700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>8</v>
@@ -1416,8 +1488,11 @@
       <c r="K33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,22 +1520,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-54700</v>
+        <v>-70300</v>
       </c>
       <c r="E35" s="3">
-        <v>-74300</v>
+        <v>-55200</v>
       </c>
       <c r="F35" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
+        <v>-75000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-50700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>8</v>
@@ -1474,42 +1552,48 @@
       <c r="K35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,22 +1619,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>249300</v>
+        <v>188300</v>
       </c>
       <c r="E41" s="3">
-        <v>365600</v>
+        <v>251500</v>
       </c>
       <c r="F41" s="3">
-        <v>145200</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
+        <v>368800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>146400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>8</v>
@@ -1563,16 +1649,19 @@
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>70400</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
+        <v>69100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>71000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1592,22 +1681,25 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23200</v>
+        <v>25500</v>
       </c>
       <c r="E43" s="3">
-        <v>28800</v>
+        <v>23400</v>
       </c>
       <c r="F43" s="3">
-        <v>20600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
+        <v>29000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>20800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
@@ -1621,22 +1713,25 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="E44" s="3">
-        <v>15400</v>
+        <v>11400</v>
       </c>
       <c r="F44" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
+        <v>15600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>12200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -1650,22 +1745,25 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9300</v>
+        <v>13900</v>
       </c>
       <c r="E45" s="3">
         <v>9400</v>
       </c>
       <c r="F45" s="3">
-        <v>13900</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+        <v>9500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>14100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -1679,22 +1777,25 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>363600</v>
+        <v>308000</v>
       </c>
       <c r="E46" s="3">
-        <v>419200</v>
+        <v>366700</v>
       </c>
       <c r="F46" s="3">
-        <v>191800</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
+        <v>422900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>193500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>8</v>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,22 +1841,25 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="E48" s="3">
-        <v>18400</v>
+        <v>19300</v>
       </c>
       <c r="F48" s="3">
-        <v>17000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
+        <v>18500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>17200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
@@ -1766,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1780,8 +1890,8 @@
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+      <c r="G49" s="3">
+        <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1862,14 +1981,14 @@
         <v>1800</v>
       </c>
       <c r="E52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,22 +2033,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>384600</v>
+        <v>329200</v>
       </c>
       <c r="E54" s="3">
-        <v>439500</v>
+        <v>387900</v>
       </c>
       <c r="F54" s="3">
-        <v>210700</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
+        <v>443400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>212500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>8</v>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,22 +2095,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>60000</v>
+        <v>62500</v>
       </c>
       <c r="E57" s="3">
-        <v>69300</v>
+        <v>60600</v>
       </c>
       <c r="F57" s="3">
-        <v>64300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
+        <v>69900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>64900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
@@ -1995,22 +2125,25 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="F58" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>3800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2024,22 +2157,25 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48500</v>
+        <v>52700</v>
       </c>
       <c r="E59" s="3">
-        <v>49300</v>
+        <v>48900</v>
       </c>
       <c r="F59" s="3">
-        <v>47100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
+        <v>49700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>47500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
@@ -2053,22 +2189,25 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>112500</v>
+        <v>118600</v>
       </c>
       <c r="E60" s="3">
-        <v>122500</v>
+        <v>113500</v>
       </c>
       <c r="F60" s="3">
-        <v>115200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
+        <v>123600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>116200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>8</v>
@@ -2082,23 +2221,26 @@
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E61" s="3">
         <v>7300</v>
       </c>
-      <c r="E61" s="3">
-        <v>7200</v>
-      </c>
       <c r="F61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G61" s="3">
         <v>6600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2111,23 +2253,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>1600</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,22 +2381,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>119400</v>
+        <v>126400</v>
       </c>
       <c r="E66" s="3">
-        <v>129400</v>
+        <v>120400</v>
       </c>
       <c r="F66" s="3">
-        <v>121700</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
+        <v>130500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>122700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,22 +2555,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1025100</v>
+        <v>-1098800</v>
       </c>
       <c r="E72" s="3">
-        <v>-980100</v>
+        <v>-1034100</v>
       </c>
       <c r="F72" s="3">
-        <v>-922100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
+        <v>-988700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-930200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,22 +2683,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>265200</v>
+        <v>202800</v>
       </c>
       <c r="E76" s="3">
-        <v>310100</v>
+        <v>267500</v>
       </c>
       <c r="F76" s="3">
-        <v>89000</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
+        <v>312800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>89800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>8</v>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,56 +2747,62 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-54700</v>
+        <v>-70300</v>
       </c>
       <c r="E81" s="3">
-        <v>-74300</v>
+        <v>-55200</v>
       </c>
       <c r="F81" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
+        <v>-75000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-50700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>8</v>
@@ -2622,8 +2816,11 @@
       <c r="K81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,23 +2832,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,22 +3022,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-46900</v>
+        <v>-56400</v>
       </c>
       <c r="E89" s="3">
-        <v>-54500</v>
+        <v>-47300</v>
       </c>
       <c r="F89" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
+        <v>-55000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-43500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,23 +3070,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1600</v>
+        <v>-2300</v>
       </c>
       <c r="E91" s="3">
         <v>-1600</v>
       </c>
       <c r="F91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,23 +3164,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-70500</v>
+        <v>-2100</v>
       </c>
       <c r="E94" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,22 +3338,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2600</v>
       </c>
-      <c r="E100" s="3">
-        <v>276800</v>
-      </c>
       <c r="F100" s="3">
-        <v>78200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
+        <v>279300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>78900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
@@ -3125,23 +3370,26 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>3600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3154,22 +3402,25 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-116300</v>
+        <v>-63200</v>
       </c>
       <c r="E102" s="3">
-        <v>220400</v>
+        <v>-117300</v>
       </c>
       <c r="F102" s="3">
-        <v>34700</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
+        <v>222300</v>
+      </c>
+      <c r="G102" s="3">
+        <v>35000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
@@ -3181,6 +3432,9 @@
         <v>8</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,143 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54600</v>
+        <v>41300</v>
       </c>
       <c r="E8" s="3">
-        <v>44400</v>
+        <v>34700</v>
       </c>
       <c r="F8" s="3">
-        <v>43400</v>
+        <v>58300</v>
       </c>
       <c r="G8" s="3">
-        <v>35200</v>
+        <v>47400</v>
       </c>
       <c r="H8" s="3">
-        <v>47000</v>
+        <v>46400</v>
       </c>
       <c r="I8" s="3">
+        <v>37600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K8" s="3">
         <v>37200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>27500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>31100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27100</v>
+        <v>13800</v>
       </c>
       <c r="E9" s="3">
-        <v>24300</v>
+        <v>12800</v>
       </c>
       <c r="F9" s="3">
-        <v>24300</v>
+        <v>28900</v>
       </c>
       <c r="G9" s="3">
-        <v>17900</v>
+        <v>25900</v>
       </c>
       <c r="H9" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K9" s="3">
+        <v>23400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>17600</v>
+      </c>
+      <c r="M9" s="3">
+        <v>21700</v>
+      </c>
+      <c r="N9" s="3">
         <v>31100</v>
       </c>
-      <c r="I9" s="3">
-        <v>23400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>17600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>21700</v>
-      </c>
-      <c r="L9" s="3">
-        <v>31100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,31 +809,37 @@
         <v>27500</v>
       </c>
       <c r="E10" s="3">
-        <v>20100</v>
+        <v>21800</v>
       </c>
       <c r="F10" s="3">
-        <v>19100</v>
+        <v>29400</v>
       </c>
       <c r="G10" s="3">
-        <v>17300</v>
+        <v>21500</v>
       </c>
       <c r="H10" s="3">
-        <v>15900</v>
+        <v>20400</v>
       </c>
       <c r="I10" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K10" s="3">
         <v>13800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>9300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +852,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="E12" s="3">
-        <v>7700</v>
+        <v>8500</v>
       </c>
       <c r="F12" s="3">
-        <v>7400</v>
+        <v>9100</v>
       </c>
       <c r="G12" s="3">
-        <v>6500</v>
+        <v>8300</v>
       </c>
       <c r="H12" s="3">
-        <v>7300</v>
+        <v>7900</v>
       </c>
       <c r="I12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K12" s="3">
         <v>5900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,28 +1017,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>122300</v>
+        <v>85800</v>
       </c>
       <c r="E17" s="3">
-        <v>104900</v>
+        <v>86300</v>
       </c>
       <c r="F17" s="3">
-        <v>117300</v>
+        <v>130600</v>
       </c>
       <c r="G17" s="3">
-        <v>85700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
+        <v>112000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>125300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>91500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
@@ -997,28 +1051,34 @@
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-67700</v>
+        <v>-44500</v>
       </c>
       <c r="E18" s="3">
-        <v>-60400</v>
+        <v>-51700</v>
       </c>
       <c r="F18" s="3">
-        <v>-73900</v>
+        <v>-72300</v>
       </c>
       <c r="G18" s="3">
-        <v>-50400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
+        <v>-64500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-53900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>8</v>
@@ -1029,8 +1089,14 @@
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,29 +1109,31 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-1500</v>
       </c>
       <c r="E20" s="3">
-        <v>4900</v>
+        <v>1800</v>
       </c>
       <c r="F20" s="3">
-        <v>-1000</v>
+        <v>-2300</v>
       </c>
       <c r="G20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1075,28 +1143,34 @@
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-67200</v>
+        <v>-43500</v>
       </c>
       <c r="E21" s="3">
-        <v>-53200</v>
+        <v>-47400</v>
       </c>
       <c r="F21" s="3">
-        <v>-72900</v>
+        <v>-71800</v>
       </c>
       <c r="G21" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>-56900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-77800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-52100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1107,8 +1181,14 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1219,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-69900</v>
+        <v>-46000</v>
       </c>
       <c r="E23" s="3">
-        <v>-55500</v>
+        <v>-49900</v>
       </c>
       <c r="F23" s="3">
-        <v>-74900</v>
+        <v>-74600</v>
       </c>
       <c r="G23" s="3">
-        <v>-50600</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
+        <v>-59300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-54100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>-37300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,31 +1272,37 @@
         <v>600</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,28 +1333,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-70400</v>
+        <v>-46600</v>
       </c>
       <c r="E26" s="3">
-        <v>-55300</v>
+        <v>-50000</v>
       </c>
       <c r="F26" s="3">
-        <v>-75100</v>
+        <v>-75200</v>
       </c>
       <c r="G26" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
+        <v>-59000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-54200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>8</v>
@@ -1267,28 +1371,34 @@
       <c r="L26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-70300</v>
+        <v>-46500</v>
       </c>
       <c r="E27" s="3">
-        <v>-55200</v>
+        <v>-49900</v>
       </c>
       <c r="F27" s="3">
-        <v>-75000</v>
+        <v>-75100</v>
       </c>
       <c r="G27" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
+        <v>-58900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-54100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
@@ -1299,8 +1409,14 @@
       <c r="L27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,29 +1561,35 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="3">
-        <v>-4900</v>
+        <v>-1800</v>
       </c>
       <c r="F32" s="3">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="G32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1459,28 +1599,34 @@
       <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70300</v>
+        <v>-46500</v>
       </c>
       <c r="E33" s="3">
-        <v>-55200</v>
+        <v>-49900</v>
       </c>
       <c r="F33" s="3">
-        <v>-75000</v>
+        <v>-75100</v>
       </c>
       <c r="G33" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
+        <v>-58900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-54100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>8</v>
@@ -1491,8 +1637,14 @@
       <c r="L33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,28 +1675,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70300</v>
+        <v>-46500</v>
       </c>
       <c r="E35" s="3">
-        <v>-55200</v>
+        <v>-49900</v>
       </c>
       <c r="F35" s="3">
-        <v>-75000</v>
+        <v>-75100</v>
       </c>
       <c r="G35" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
+        <v>-58900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-54100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>8</v>
@@ -1555,45 +1713,57 @@
       <c r="L35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,28 +1792,30 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>188300</v>
+        <v>201100</v>
       </c>
       <c r="E41" s="3">
-        <v>251500</v>
+        <v>226100</v>
       </c>
       <c r="F41" s="3">
-        <v>368800</v>
+        <v>201100</v>
       </c>
       <c r="G41" s="3">
-        <v>146400</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
+        <v>268600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>393900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>156400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -1652,22 +1826,28 @@
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>69100</v>
+        <v>73800</v>
       </c>
       <c r="E42" s="3">
-        <v>71000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>73800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>75900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1684,28 +1864,34 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25500</v>
+        <v>27300</v>
       </c>
       <c r="E43" s="3">
-        <v>23400</v>
+        <v>25200</v>
       </c>
       <c r="F43" s="3">
-        <v>29000</v>
+        <v>27300</v>
       </c>
       <c r="G43" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
+        <v>25000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>22200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -1716,28 +1902,34 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11100</v>
+        <v>11800</v>
       </c>
       <c r="E44" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="F44" s="3">
-        <v>15600</v>
+        <v>11800</v>
       </c>
       <c r="G44" s="3">
         <v>12200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+      <c r="H44" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>13000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -1748,28 +1940,34 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13900</v>
+        <v>14900</v>
       </c>
       <c r="E45" s="3">
-        <v>9400</v>
+        <v>14600</v>
       </c>
       <c r="F45" s="3">
-        <v>9500</v>
+        <v>14900</v>
       </c>
       <c r="G45" s="3">
-        <v>14100</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+        <v>10000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>15000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -1780,28 +1978,34 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>308000</v>
+        <v>328900</v>
       </c>
       <c r="E46" s="3">
-        <v>366700</v>
+        <v>277100</v>
       </c>
       <c r="F46" s="3">
-        <v>422900</v>
+        <v>328900</v>
       </c>
       <c r="G46" s="3">
-        <v>193500</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
+        <v>391700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>451600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>206700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -1812,8 +2016,14 @@
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,28 +2054,34 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19300</v>
+        <v>20600</v>
       </c>
       <c r="E48" s="3">
-        <v>19300</v>
+        <v>21300</v>
       </c>
       <c r="F48" s="3">
-        <v>18500</v>
+        <v>20600</v>
       </c>
       <c r="G48" s="3">
-        <v>17200</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
+        <v>20600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>19800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>18300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -1876,8 +2092,14 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1885,7 +2107,7 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -1893,11 +2115,11 @@
       <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,28 +2206,34 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F52" s="3">
         <v>1900</v>
       </c>
       <c r="G52" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+        <v>1900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,28 +2282,34 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>329200</v>
+        <v>351500</v>
       </c>
       <c r="E54" s="3">
-        <v>387900</v>
+        <v>300200</v>
       </c>
       <c r="F54" s="3">
-        <v>443400</v>
+        <v>351500</v>
       </c>
       <c r="G54" s="3">
-        <v>212500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
+        <v>414300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>473500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>227000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,28 +2356,30 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>62500</v>
+        <v>66800</v>
       </c>
       <c r="E57" s="3">
-        <v>60600</v>
+        <v>57000</v>
       </c>
       <c r="F57" s="3">
-        <v>69900</v>
+        <v>66800</v>
       </c>
       <c r="G57" s="3">
-        <v>64900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
+        <v>64700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>74700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>69300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -2128,29 +2390,35 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2160,28 +2428,34 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52700</v>
+        <v>56300</v>
       </c>
       <c r="E59" s="3">
-        <v>48900</v>
+        <v>57200</v>
       </c>
       <c r="F59" s="3">
-        <v>49700</v>
+        <v>56300</v>
       </c>
       <c r="G59" s="3">
-        <v>47500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+        <v>52200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>53100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>50700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -2192,28 +2466,34 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>118600</v>
+        <v>126600</v>
       </c>
       <c r="E60" s="3">
-        <v>113500</v>
+        <v>117600</v>
       </c>
       <c r="F60" s="3">
-        <v>123600</v>
+        <v>126600</v>
       </c>
       <c r="G60" s="3">
-        <v>116200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
+        <v>121200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>132000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>124100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -2224,28 +2504,34 @@
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6800</v>
+        <v>7200</v>
       </c>
       <c r="E61" s="3">
-        <v>7300</v>
+        <v>8700</v>
       </c>
       <c r="F61" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="G61" s="3">
-        <v>6600</v>
+        <v>7800</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2256,29 +2542,35 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,28 +2694,34 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>126400</v>
+        <v>135000</v>
       </c>
       <c r="E66" s="3">
-        <v>120400</v>
+        <v>127200</v>
       </c>
       <c r="F66" s="3">
-        <v>130500</v>
+        <v>135000</v>
       </c>
       <c r="G66" s="3">
-        <v>122700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
+        <v>128600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>139400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>131100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -2416,8 +2732,14 @@
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,28 +2900,34 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1098800</v>
+        <v>-1173500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1034100</v>
+        <v>-1217000</v>
       </c>
       <c r="F72" s="3">
-        <v>-988700</v>
+        <v>-1173500</v>
       </c>
       <c r="G72" s="3">
-        <v>-930200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
+        <v>-1104400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1055900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-993400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -2590,8 +2938,14 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,28 +3052,34 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>202800</v>
+        <v>216600</v>
       </c>
       <c r="E76" s="3">
-        <v>267500</v>
+        <v>173000</v>
       </c>
       <c r="F76" s="3">
-        <v>312800</v>
+        <v>216600</v>
       </c>
       <c r="G76" s="3">
-        <v>89800</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
+        <v>285700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>334100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>95900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -2718,8 +3090,14 @@
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,65 +3128,77 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70300</v>
+        <v>-46500</v>
       </c>
       <c r="E81" s="3">
-        <v>-55200</v>
+        <v>-49900</v>
       </c>
       <c r="F81" s="3">
-        <v>-75000</v>
+        <v>-75100</v>
       </c>
       <c r="G81" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
+        <v>-58900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-54100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>8</v>
@@ -2819,8 +3209,14 @@
       <c r="L81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,29 +3229,31 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E83" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="F83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,28 +3453,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-56400</v>
+        <v>-14200</v>
       </c>
       <c r="E89" s="3">
-        <v>-47300</v>
+        <v>-46400</v>
       </c>
       <c r="F89" s="3">
-        <v>-55000</v>
+        <v>-60300</v>
       </c>
       <c r="G89" s="3">
-        <v>-43500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
+        <v>-50500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-46500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -3057,8 +3491,14 @@
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,29 +3511,31 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2300</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1600</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1600</v>
+        <v>-2400</v>
       </c>
       <c r="G91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,29 +3621,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2100</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
-        <v>-71100</v>
+        <v>73300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1000</v>
+        <v>-2300</v>
       </c>
       <c r="G94" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,28 +3827,34 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4600</v>
+        <v>-2000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2600</v>
+        <v>-1900</v>
       </c>
       <c r="F100" s="3">
-        <v>279300</v>
+        <v>-4900</v>
       </c>
       <c r="G100" s="3">
-        <v>78900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
+        <v>-2800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>298200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>84200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3373,28 +3865,34 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+        <v>3900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>500</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3405,28 +3903,34 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-63200</v>
+        <v>-19900</v>
       </c>
       <c r="E102" s="3">
-        <v>-117300</v>
+        <v>25000</v>
       </c>
       <c r="F102" s="3">
-        <v>222300</v>
+        <v>-67500</v>
       </c>
       <c r="G102" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
+        <v>-125300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>237500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>37400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
@@ -3435,6 +3939,12 @@
         <v>8</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>JMIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>41300</v>
+        <v>40300</v>
       </c>
       <c r="E8" s="3">
-        <v>34700</v>
+        <v>41700</v>
       </c>
       <c r="F8" s="3">
-        <v>58300</v>
+        <v>35000</v>
       </c>
       <c r="G8" s="3">
-        <v>47400</v>
+        <v>59000</v>
       </c>
       <c r="H8" s="3">
-        <v>46400</v>
+        <v>48000</v>
       </c>
       <c r="I8" s="3">
-        <v>37600</v>
+        <v>46900</v>
       </c>
       <c r="J8" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K8" s="3">
         <v>50200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13800</v>
+        <v>12500</v>
       </c>
       <c r="E9" s="3">
-        <v>12800</v>
+        <v>14000</v>
       </c>
       <c r="F9" s="3">
-        <v>28900</v>
+        <v>13000</v>
       </c>
       <c r="G9" s="3">
-        <v>25900</v>
+        <v>29200</v>
       </c>
       <c r="H9" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="I9" s="3">
-        <v>19100</v>
+        <v>26300</v>
       </c>
       <c r="J9" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K9" s="3">
         <v>33200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27500</v>
+        <v>27800</v>
       </c>
       <c r="E10" s="3">
-        <v>21800</v>
+        <v>27800</v>
       </c>
       <c r="F10" s="3">
-        <v>29400</v>
+        <v>22100</v>
       </c>
       <c r="G10" s="3">
-        <v>21500</v>
+        <v>29700</v>
       </c>
       <c r="H10" s="3">
-        <v>20400</v>
+        <v>21700</v>
       </c>
       <c r="I10" s="3">
-        <v>18500</v>
+        <v>20600</v>
       </c>
       <c r="J10" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K10" s="3">
         <v>17000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8300</v>
+        <v>3700</v>
       </c>
       <c r="E12" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="F12" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="G12" s="3">
-        <v>8300</v>
+        <v>9200</v>
       </c>
       <c r="H12" s="3">
-        <v>7900</v>
+        <v>8400</v>
       </c>
       <c r="I12" s="3">
-        <v>6900</v>
+        <v>8000</v>
       </c>
       <c r="J12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K12" s="3">
         <v>7800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,31 +988,34 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>2200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,31 +1045,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>85800</v>
+        <v>73700</v>
       </c>
       <c r="E17" s="3">
-        <v>86300</v>
+        <v>86700</v>
       </c>
       <c r="F17" s="3">
-        <v>130600</v>
+        <v>87300</v>
       </c>
       <c r="G17" s="3">
-        <v>112000</v>
+        <v>132000</v>
       </c>
       <c r="H17" s="3">
-        <v>125300</v>
+        <v>113200</v>
       </c>
       <c r="I17" s="3">
-        <v>91500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
+        <v>126700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>92500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>8</v>
@@ -1057,31 +1084,34 @@
       <c r="N17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-44500</v>
+        <v>-33400</v>
       </c>
       <c r="E18" s="3">
-        <v>-51700</v>
+        <v>-45000</v>
       </c>
       <c r="F18" s="3">
-        <v>-72300</v>
+        <v>-52300</v>
       </c>
       <c r="G18" s="3">
-        <v>-64500</v>
+        <v>-73100</v>
       </c>
       <c r="H18" s="3">
-        <v>-78900</v>
+        <v>-65300</v>
       </c>
       <c r="I18" s="3">
-        <v>-53900</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
+        <v>-79800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-54500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>8</v>
@@ -1095,8 +1125,11 @@
       <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,32 +1144,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H20" s="3">
         <v>5300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1149,31 +1183,34 @@
       <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-43500</v>
+        <v>-35500</v>
       </c>
       <c r="E21" s="3">
-        <v>-47400</v>
+        <v>-44000</v>
       </c>
       <c r="F21" s="3">
-        <v>-71800</v>
+        <v>-47900</v>
       </c>
       <c r="G21" s="3">
-        <v>-56900</v>
+        <v>-72600</v>
       </c>
       <c r="H21" s="3">
-        <v>-77800</v>
+        <v>-57500</v>
       </c>
       <c r="I21" s="3">
-        <v>-52100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>-78700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-52700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,31 +1265,34 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-46000</v>
+        <v>-37800</v>
       </c>
       <c r="E23" s="3">
-        <v>-49900</v>
+        <v>-46500</v>
       </c>
       <c r="F23" s="3">
-        <v>-74600</v>
+        <v>-50400</v>
       </c>
       <c r="G23" s="3">
-        <v>-59300</v>
+        <v>-75400</v>
       </c>
       <c r="H23" s="3">
-        <v>-79900</v>
+        <v>-60000</v>
       </c>
       <c r="I23" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
+        <v>-80800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-54700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>8</v>
@@ -1257,52 +1300,58 @@
       <c r="L23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>-37300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,31 +1388,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46600</v>
+        <v>-38700</v>
       </c>
       <c r="E26" s="3">
-        <v>-50000</v>
+        <v>-47100</v>
       </c>
       <c r="F26" s="3">
-        <v>-75200</v>
+        <v>-50600</v>
       </c>
       <c r="G26" s="3">
-        <v>-59000</v>
+        <v>-76100</v>
       </c>
       <c r="H26" s="3">
-        <v>-80200</v>
+        <v>-59700</v>
       </c>
       <c r="I26" s="3">
-        <v>-54200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
+        <v>-81100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-54800</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>8</v>
@@ -1377,31 +1429,34 @@
       <c r="N26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46500</v>
+        <v>-38700</v>
       </c>
       <c r="E27" s="3">
-        <v>-49900</v>
+        <v>-47000</v>
       </c>
       <c r="F27" s="3">
-        <v>-75100</v>
+        <v>-50500</v>
       </c>
       <c r="G27" s="3">
-        <v>-58900</v>
+        <v>-75900</v>
       </c>
       <c r="H27" s="3">
-        <v>-80100</v>
+        <v>-59600</v>
       </c>
       <c r="I27" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
+        <v>-81000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-54700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>8</v>
@@ -1415,8 +1470,11 @@
       <c r="N27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,32 +1634,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
-        <v>2300</v>
-      </c>
       <c r="G32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-5300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1605,31 +1675,34 @@
       <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46500</v>
+        <v>-38700</v>
       </c>
       <c r="E33" s="3">
-        <v>-49900</v>
+        <v>-47000</v>
       </c>
       <c r="F33" s="3">
-        <v>-75100</v>
+        <v>-50500</v>
       </c>
       <c r="G33" s="3">
-        <v>-58900</v>
+        <v>-75900</v>
       </c>
       <c r="H33" s="3">
-        <v>-80100</v>
+        <v>-59600</v>
       </c>
       <c r="I33" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
+        <v>-81000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-54700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>8</v>
@@ -1643,8 +1716,11 @@
       <c r="N33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,31 +1757,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46500</v>
+        <v>-38700</v>
       </c>
       <c r="E35" s="3">
-        <v>-49900</v>
+        <v>-47000</v>
       </c>
       <c r="F35" s="3">
-        <v>-75100</v>
+        <v>-50500</v>
       </c>
       <c r="G35" s="3">
-        <v>-58900</v>
+        <v>-75900</v>
       </c>
       <c r="H35" s="3">
-        <v>-80100</v>
+        <v>-59600</v>
       </c>
       <c r="I35" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
+        <v>-81000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-54700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>8</v>
@@ -1719,51 +1798,57 @@
       <c r="N35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,31 +1880,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>201100</v>
+        <v>176000</v>
       </c>
       <c r="E41" s="3">
-        <v>226100</v>
+        <v>203400</v>
       </c>
       <c r="F41" s="3">
-        <v>201100</v>
+        <v>228600</v>
       </c>
       <c r="G41" s="3">
-        <v>268600</v>
+        <v>203400</v>
       </c>
       <c r="H41" s="3">
-        <v>393900</v>
+        <v>271600</v>
       </c>
       <c r="I41" s="3">
-        <v>156400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
+        <v>398300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>158100</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
@@ -1832,25 +1919,28 @@
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>73800</v>
+        <v>1200</v>
       </c>
       <c r="E42" s="3">
+        <v>74700</v>
+      </c>
+      <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="F42" s="3">
-        <v>73800</v>
-      </c>
       <c r="G42" s="3">
-        <v>75900</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>74700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>76700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1870,31 +1960,34 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27300</v>
+        <v>19500</v>
       </c>
       <c r="E43" s="3">
-        <v>25200</v>
+        <v>27600</v>
       </c>
       <c r="F43" s="3">
-        <v>27300</v>
+        <v>25500</v>
       </c>
       <c r="G43" s="3">
-        <v>25000</v>
+        <v>27600</v>
       </c>
       <c r="H43" s="3">
-        <v>31000</v>
+        <v>25300</v>
       </c>
       <c r="I43" s="3">
-        <v>22200</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+        <v>31300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>22500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -1908,31 +2001,34 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11800</v>
+        <v>9200</v>
       </c>
       <c r="E44" s="3">
-        <v>10700</v>
+        <v>12000</v>
       </c>
       <c r="F44" s="3">
-        <v>11800</v>
+        <v>10800</v>
       </c>
       <c r="G44" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="H44" s="3">
-        <v>16600</v>
+        <v>12300</v>
       </c>
       <c r="I44" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+        <v>16800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>13200</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -1946,31 +2042,34 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14900</v>
+        <v>7200</v>
       </c>
       <c r="E45" s="3">
-        <v>14600</v>
+        <v>15100</v>
       </c>
       <c r="F45" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="G45" s="3">
-        <v>10000</v>
+        <v>15100</v>
       </c>
       <c r="H45" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="I45" s="3">
-        <v>15000</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+        <v>10200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>15200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -1984,31 +2083,34 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>328900</v>
+        <v>213100</v>
       </c>
       <c r="E46" s="3">
-        <v>277100</v>
+        <v>332600</v>
       </c>
       <c r="F46" s="3">
-        <v>328900</v>
+        <v>280300</v>
       </c>
       <c r="G46" s="3">
-        <v>391700</v>
+        <v>332600</v>
       </c>
       <c r="H46" s="3">
-        <v>451600</v>
+        <v>396100</v>
       </c>
       <c r="I46" s="3">
-        <v>206700</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
+        <v>456700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>209000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,31 +2165,34 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20600</v>
+        <v>18600</v>
       </c>
       <c r="E48" s="3">
-        <v>21300</v>
+        <v>20900</v>
       </c>
       <c r="F48" s="3">
-        <v>20600</v>
+        <v>21500</v>
       </c>
       <c r="G48" s="3">
-        <v>20600</v>
+        <v>20900</v>
       </c>
       <c r="H48" s="3">
-        <v>19800</v>
+        <v>20900</v>
       </c>
       <c r="I48" s="3">
-        <v>18300</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
+        <v>20000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>18500</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -2098,19 +2206,22 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2121,8 +2232,8 @@
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,32 +2329,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1900</v>
       </c>
       <c r="G52" s="3">
         <v>1900</v>
       </c>
       <c r="H52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,31 +2411,34 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>351500</v>
+        <v>234000</v>
       </c>
       <c r="E54" s="3">
-        <v>300200</v>
+        <v>355500</v>
       </c>
       <c r="F54" s="3">
-        <v>351500</v>
+        <v>303500</v>
       </c>
       <c r="G54" s="3">
-        <v>414300</v>
+        <v>355500</v>
       </c>
       <c r="H54" s="3">
-        <v>473500</v>
+        <v>418900</v>
       </c>
       <c r="I54" s="3">
-        <v>227000</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
+        <v>478800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>229600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,31 +2488,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>66800</v>
+        <v>62700</v>
       </c>
       <c r="E57" s="3">
-        <v>57000</v>
+        <v>67500</v>
       </c>
       <c r="F57" s="3">
-        <v>66800</v>
+        <v>57600</v>
       </c>
       <c r="G57" s="3">
-        <v>64700</v>
+        <v>67500</v>
       </c>
       <c r="H57" s="3">
-        <v>74700</v>
+        <v>65400</v>
       </c>
       <c r="I57" s="3">
-        <v>69300</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
+        <v>75500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>70100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -2396,31 +2527,34 @@
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="E58" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="F58" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G58" s="3">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="H58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>4100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2434,31 +2568,34 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56300</v>
+        <v>65200</v>
       </c>
       <c r="E59" s="3">
-        <v>57200</v>
+        <v>56900</v>
       </c>
       <c r="F59" s="3">
-        <v>56300</v>
+        <v>57800</v>
       </c>
       <c r="G59" s="3">
-        <v>52200</v>
+        <v>56900</v>
       </c>
       <c r="H59" s="3">
-        <v>53100</v>
+        <v>52800</v>
       </c>
       <c r="I59" s="3">
-        <v>50700</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+        <v>53700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>51300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -2472,31 +2609,34 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>126600</v>
+        <v>130900</v>
       </c>
       <c r="E60" s="3">
-        <v>117600</v>
+        <v>128100</v>
       </c>
       <c r="F60" s="3">
-        <v>126600</v>
+        <v>118900</v>
       </c>
       <c r="G60" s="3">
-        <v>121200</v>
+        <v>128100</v>
       </c>
       <c r="H60" s="3">
-        <v>132000</v>
+        <v>122600</v>
       </c>
       <c r="I60" s="3">
-        <v>124100</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
+        <v>133500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>125500</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
@@ -2510,32 +2650,35 @@
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H61" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I61" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J61" s="3">
         <v>7200</v>
       </c>
-      <c r="E61" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2548,32 +2691,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,31 +2855,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>135000</v>
+        <v>139700</v>
       </c>
       <c r="E66" s="3">
-        <v>127200</v>
+        <v>136500</v>
       </c>
       <c r="F66" s="3">
-        <v>135000</v>
+        <v>128600</v>
       </c>
       <c r="G66" s="3">
-        <v>128600</v>
+        <v>136500</v>
       </c>
       <c r="H66" s="3">
-        <v>139400</v>
+        <v>130100</v>
       </c>
       <c r="I66" s="3">
-        <v>131100</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
+        <v>141000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>132500</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,31 +3077,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1173500</v>
+        <v>-1317800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1217000</v>
+        <v>-1186700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1173500</v>
+        <v>-1230700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1104400</v>
+        <v>-1186700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1055900</v>
+        <v>-1116800</v>
       </c>
       <c r="I72" s="3">
-        <v>-993400</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
+        <v>-1067800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1004600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,31 +3241,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>216600</v>
+        <v>94300</v>
       </c>
       <c r="E76" s="3">
-        <v>173000</v>
+        <v>219000</v>
       </c>
       <c r="F76" s="3">
-        <v>216600</v>
+        <v>174900</v>
       </c>
       <c r="G76" s="3">
-        <v>285700</v>
+        <v>219000</v>
       </c>
       <c r="H76" s="3">
-        <v>334100</v>
+        <v>288900</v>
       </c>
       <c r="I76" s="3">
-        <v>95900</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
+        <v>337900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>97000</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,74 +3323,80 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46500</v>
+        <v>-38700</v>
       </c>
       <c r="E81" s="3">
-        <v>-49900</v>
+        <v>-47000</v>
       </c>
       <c r="F81" s="3">
-        <v>-75100</v>
+        <v>-50500</v>
       </c>
       <c r="G81" s="3">
-        <v>-58900</v>
+        <v>-75900</v>
       </c>
       <c r="H81" s="3">
-        <v>-80100</v>
+        <v>-59600</v>
       </c>
       <c r="I81" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
+        <v>-81000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-54700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>8</v>
@@ -3215,8 +3410,11 @@
       <c r="N81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,32 +3429,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
         <v>2500</v>
       </c>
       <c r="F83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
-        <v>2400</v>
-      </c>
       <c r="H83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I83" s="3">
         <v>2100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,31 +3673,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-14200</v>
+        <v>-24700</v>
       </c>
       <c r="E89" s="3">
-        <v>-46400</v>
+        <v>-14400</v>
       </c>
       <c r="F89" s="3">
-        <v>-60300</v>
+        <v>-47000</v>
       </c>
       <c r="G89" s="3">
-        <v>-50500</v>
+        <v>-61000</v>
       </c>
       <c r="H89" s="3">
-        <v>-58700</v>
+        <v>-51100</v>
       </c>
       <c r="I89" s="3">
-        <v>-46500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
+        <v>-59400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-47000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3525,20 +3746,20 @@
         <v>-500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2400</v>
+        <v>-500</v>
       </c>
       <c r="G91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,32 +3854,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
-        <v>73300</v>
-      </c>
       <c r="F94" s="3">
+        <v>74100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
-        <v>-75900</v>
-      </c>
       <c r="H94" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,31 +4076,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="F100" s="3">
-        <v>-4900</v>
-      </c>
       <c r="G100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-2800</v>
       </c>
-      <c r="H100" s="3">
-        <v>298200</v>
-      </c>
       <c r="I100" s="3">
-        <v>84200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>301600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>85200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3871,32 +4117,35 @@
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>-6100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-3100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>3900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3909,31 +4158,34 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19900</v>
+        <v>-32500</v>
       </c>
       <c r="E102" s="3">
-        <v>25000</v>
+        <v>-20100</v>
       </c>
       <c r="F102" s="3">
-        <v>-67500</v>
+        <v>25300</v>
       </c>
       <c r="G102" s="3">
-        <v>-125300</v>
+        <v>-68200</v>
       </c>
       <c r="H102" s="3">
-        <v>237500</v>
+        <v>-126700</v>
       </c>
       <c r="I102" s="3">
-        <v>37400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
+        <v>240100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>37800</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
@@ -3945,6 +4197,9 @@
         <v>8</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40300</v>
+        <v>49200</v>
       </c>
       <c r="E8" s="3">
-        <v>41700</v>
+        <v>39600</v>
       </c>
       <c r="F8" s="3">
-        <v>35000</v>
+        <v>41100</v>
       </c>
       <c r="G8" s="3">
-        <v>59000</v>
+        <v>34500</v>
       </c>
       <c r="H8" s="3">
-        <v>48000</v>
+        <v>58000</v>
       </c>
       <c r="I8" s="3">
-        <v>46900</v>
+        <v>47200</v>
       </c>
       <c r="J8" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K8" s="3">
         <v>38000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>50200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12500</v>
+        <v>16300</v>
       </c>
       <c r="E9" s="3">
-        <v>14000</v>
+        <v>12300</v>
       </c>
       <c r="F9" s="3">
-        <v>13000</v>
+        <v>13700</v>
       </c>
       <c r="G9" s="3">
-        <v>29200</v>
+        <v>12800</v>
       </c>
       <c r="H9" s="3">
-        <v>26200</v>
+        <v>28800</v>
       </c>
       <c r="I9" s="3">
-        <v>26300</v>
+        <v>25800</v>
       </c>
       <c r="J9" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K9" s="3">
         <v>19300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>21700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27800</v>
+        <v>32900</v>
       </c>
       <c r="E10" s="3">
-        <v>27800</v>
+        <v>27400</v>
       </c>
       <c r="F10" s="3">
-        <v>22100</v>
+        <v>27300</v>
       </c>
       <c r="G10" s="3">
-        <v>29700</v>
+        <v>21700</v>
       </c>
       <c r="H10" s="3">
-        <v>21700</v>
+        <v>29200</v>
       </c>
       <c r="I10" s="3">
-        <v>20600</v>
+        <v>21400</v>
       </c>
       <c r="J10" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K10" s="3">
         <v>18700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E12" s="3">
         <v>3700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G12" s="3">
         <v>8400</v>
       </c>
-      <c r="F12" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9200</v>
-      </c>
       <c r="H12" s="3">
-        <v>8400</v>
+        <v>9100</v>
       </c>
       <c r="I12" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="J12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K12" s="3">
         <v>7000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,17 +1010,20 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="3">
         <v>2200</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1017,8 +1039,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,35 +1071,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73700</v>
+        <v>96100</v>
       </c>
       <c r="E17" s="3">
-        <v>86700</v>
+        <v>72500</v>
       </c>
       <c r="F17" s="3">
-        <v>87300</v>
+        <v>85300</v>
       </c>
       <c r="G17" s="3">
-        <v>132000</v>
+        <v>85900</v>
       </c>
       <c r="H17" s="3">
-        <v>113200</v>
+        <v>129900</v>
       </c>
       <c r="I17" s="3">
-        <v>126700</v>
+        <v>111400</v>
       </c>
       <c r="J17" s="3">
+        <v>124600</v>
+      </c>
+      <c r="K17" s="3">
         <v>92500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1087,35 +1113,38 @@
       <c r="O17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-33400</v>
+        <v>-47000</v>
       </c>
       <c r="E18" s="3">
-        <v>-45000</v>
+        <v>-32900</v>
       </c>
       <c r="F18" s="3">
-        <v>-52300</v>
+        <v>-44200</v>
       </c>
       <c r="G18" s="3">
-        <v>-73100</v>
+        <v>-51400</v>
       </c>
       <c r="H18" s="3">
-        <v>-65300</v>
+        <v>-71900</v>
       </c>
       <c r="I18" s="3">
-        <v>-79800</v>
+        <v>-64200</v>
       </c>
       <c r="J18" s="3">
+        <v>-78400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-54500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1157,11 @@
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,35 +1177,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4400</v>
+        <v>-6800</v>
       </c>
       <c r="E20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H20" s="3">
-        <v>5300</v>
+        <v>-2300</v>
       </c>
       <c r="I20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1186,35 +1219,38 @@
       <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-35500</v>
+        <v>-51400</v>
       </c>
       <c r="E21" s="3">
-        <v>-44000</v>
+        <v>-34900</v>
       </c>
       <c r="F21" s="3">
-        <v>-47900</v>
+        <v>-43300</v>
       </c>
       <c r="G21" s="3">
-        <v>-72600</v>
+        <v>-47100</v>
       </c>
       <c r="H21" s="3">
-        <v>-57500</v>
+        <v>-71400</v>
       </c>
       <c r="I21" s="3">
-        <v>-78700</v>
+        <v>-56500</v>
       </c>
       <c r="J21" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-52700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-37800</v>
+        <v>-53800</v>
       </c>
       <c r="E23" s="3">
-        <v>-46500</v>
+        <v>-37200</v>
       </c>
       <c r="F23" s="3">
-        <v>-50400</v>
+        <v>-45700</v>
       </c>
       <c r="G23" s="3">
-        <v>-75400</v>
+        <v>-49600</v>
       </c>
       <c r="H23" s="3">
-        <v>-60000</v>
+        <v>-74200</v>
       </c>
       <c r="I23" s="3">
-        <v>-80800</v>
+        <v>-59000</v>
       </c>
       <c r="J23" s="3">
+        <v>-79500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-54700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>-37300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,35 +1439,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-38700</v>
+        <v>-55200</v>
       </c>
       <c r="E26" s="3">
-        <v>-47100</v>
+        <v>-38100</v>
       </c>
       <c r="F26" s="3">
-        <v>-50600</v>
+        <v>-46300</v>
       </c>
       <c r="G26" s="3">
-        <v>-76100</v>
+        <v>-49700</v>
       </c>
       <c r="H26" s="3">
-        <v>-59700</v>
+        <v>-74800</v>
       </c>
       <c r="I26" s="3">
-        <v>-81100</v>
+        <v>-58700</v>
       </c>
       <c r="J26" s="3">
+        <v>-79700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-54800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1432,35 +1483,38 @@
       <c r="O26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-38700</v>
+        <v>-55400</v>
       </c>
       <c r="E27" s="3">
-        <v>-47000</v>
+        <v>-38000</v>
       </c>
       <c r="F27" s="3">
-        <v>-50500</v>
+        <v>-46200</v>
       </c>
       <c r="G27" s="3">
-        <v>-75900</v>
+        <v>-49700</v>
       </c>
       <c r="H27" s="3">
-        <v>-59600</v>
+        <v>-74700</v>
       </c>
       <c r="I27" s="3">
-        <v>-81000</v>
+        <v>-58600</v>
       </c>
       <c r="J27" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-54700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1473,8 +1527,11 @@
       <c r="O27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,35 +1703,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4400</v>
+        <v>6800</v>
       </c>
       <c r="E32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
-        <v>2400</v>
-      </c>
       <c r="H32" s="3">
-        <v>-5300</v>
+        <v>2300</v>
       </c>
       <c r="I32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1678,35 +1747,38 @@
       <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-38700</v>
+        <v>-55400</v>
       </c>
       <c r="E33" s="3">
-        <v>-47000</v>
+        <v>-38000</v>
       </c>
       <c r="F33" s="3">
-        <v>-50500</v>
+        <v>-46200</v>
       </c>
       <c r="G33" s="3">
-        <v>-75900</v>
+        <v>-49700</v>
       </c>
       <c r="H33" s="3">
-        <v>-59600</v>
+        <v>-74700</v>
       </c>
       <c r="I33" s="3">
-        <v>-81000</v>
+        <v>-58600</v>
       </c>
       <c r="J33" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-54700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1719,8 +1791,11 @@
       <c r="O33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,35 +1835,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-38700</v>
+        <v>-55400</v>
       </c>
       <c r="E35" s="3">
-        <v>-47000</v>
+        <v>-38000</v>
       </c>
       <c r="F35" s="3">
-        <v>-50500</v>
+        <v>-46200</v>
       </c>
       <c r="G35" s="3">
-        <v>-75900</v>
+        <v>-49700</v>
       </c>
       <c r="H35" s="3">
-        <v>-59600</v>
+        <v>-74700</v>
       </c>
       <c r="I35" s="3">
-        <v>-81000</v>
+        <v>-58600</v>
       </c>
       <c r="J35" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-54700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1801,54 +1879,60 @@
       <c r="O35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>176000</v>
+        <v>358700</v>
       </c>
       <c r="E41" s="3">
-        <v>203400</v>
+        <v>173100</v>
       </c>
       <c r="F41" s="3">
-        <v>228600</v>
+        <v>200000</v>
       </c>
       <c r="G41" s="3">
-        <v>203400</v>
+        <v>224900</v>
       </c>
       <c r="H41" s="3">
-        <v>271600</v>
+        <v>200000</v>
       </c>
       <c r="I41" s="3">
-        <v>398300</v>
+        <v>267100</v>
       </c>
       <c r="J41" s="3">
+        <v>391700</v>
+      </c>
+      <c r="K41" s="3">
         <v>158100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1931,19 +2020,19 @@
         <v>1200</v>
       </c>
       <c r="E42" s="3">
-        <v>74700</v>
+        <v>1200</v>
       </c>
       <c r="F42" s="3">
+        <v>73400</v>
+      </c>
+      <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3">
-        <v>74700</v>
-      </c>
       <c r="H42" s="3">
-        <v>76700</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>73400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>75400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1963,35 +2052,38 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="E43" s="3">
-        <v>27600</v>
+        <v>19100</v>
       </c>
       <c r="F43" s="3">
-        <v>25500</v>
+        <v>27100</v>
       </c>
       <c r="G43" s="3">
-        <v>27600</v>
+        <v>25000</v>
       </c>
       <c r="H43" s="3">
-        <v>25300</v>
+        <v>27100</v>
       </c>
       <c r="I43" s="3">
-        <v>31300</v>
+        <v>24900</v>
       </c>
       <c r="J43" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K43" s="3">
         <v>22500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2004,35 +2096,38 @@
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9200</v>
+        <v>7900</v>
       </c>
       <c r="E44" s="3">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="F44" s="3">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="G44" s="3">
-        <v>12000</v>
+        <v>10600</v>
       </c>
       <c r="H44" s="3">
-        <v>12300</v>
+        <v>11800</v>
       </c>
       <c r="I44" s="3">
-        <v>16800</v>
+        <v>12100</v>
       </c>
       <c r="J44" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K44" s="3">
         <v>13200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2045,35 +2140,38 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7200</v>
+        <v>12200</v>
       </c>
       <c r="E45" s="3">
-        <v>15100</v>
+        <v>7100</v>
       </c>
       <c r="F45" s="3">
         <v>14800</v>
       </c>
       <c r="G45" s="3">
-        <v>15100</v>
+        <v>14600</v>
       </c>
       <c r="H45" s="3">
-        <v>10200</v>
+        <v>14800</v>
       </c>
       <c r="I45" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="J45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2086,35 +2184,38 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>213100</v>
+        <v>397000</v>
       </c>
       <c r="E46" s="3">
-        <v>332600</v>
+        <v>209600</v>
       </c>
       <c r="F46" s="3">
-        <v>280300</v>
+        <v>327100</v>
       </c>
       <c r="G46" s="3">
-        <v>332600</v>
+        <v>275600</v>
       </c>
       <c r="H46" s="3">
-        <v>396100</v>
+        <v>327100</v>
       </c>
       <c r="I46" s="3">
-        <v>456700</v>
+        <v>389500</v>
       </c>
       <c r="J46" s="3">
+        <v>449100</v>
+      </c>
+      <c r="K46" s="3">
         <v>209000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,35 +2272,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18600</v>
+        <v>19500</v>
       </c>
       <c r="E48" s="3">
-        <v>20900</v>
+        <v>18200</v>
       </c>
       <c r="F48" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="G48" s="3">
-        <v>20900</v>
+        <v>21200</v>
       </c>
       <c r="H48" s="3">
-        <v>20900</v>
+        <v>20500</v>
       </c>
       <c r="I48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="J48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K48" s="3">
         <v>18500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2209,22 +2316,25 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2235,8 +2345,8 @@
       <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>100</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2341,26 +2460,26 @@
         <v>1700</v>
       </c>
       <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1900</v>
       </c>
       <c r="H52" s="3">
         <v>1900</v>
       </c>
       <c r="I52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>234000</v>
+        <v>418700</v>
       </c>
       <c r="E54" s="3">
-        <v>355500</v>
+        <v>230100</v>
       </c>
       <c r="F54" s="3">
-        <v>303500</v>
+        <v>349600</v>
       </c>
       <c r="G54" s="3">
-        <v>355500</v>
+        <v>298500</v>
       </c>
       <c r="H54" s="3">
-        <v>418900</v>
+        <v>349600</v>
       </c>
       <c r="I54" s="3">
-        <v>478800</v>
+        <v>412000</v>
       </c>
       <c r="J54" s="3">
+        <v>470900</v>
+      </c>
+      <c r="K54" s="3">
         <v>229600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,35 +2618,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>62700</v>
+        <v>72700</v>
       </c>
       <c r="E57" s="3">
-        <v>67500</v>
+        <v>61600</v>
       </c>
       <c r="F57" s="3">
-        <v>57600</v>
+        <v>66400</v>
       </c>
       <c r="G57" s="3">
-        <v>67500</v>
+        <v>56700</v>
       </c>
       <c r="H57" s="3">
-        <v>65400</v>
+        <v>66400</v>
       </c>
       <c r="I57" s="3">
-        <v>75500</v>
+        <v>64300</v>
       </c>
       <c r="J57" s="3">
+        <v>74300</v>
+      </c>
+      <c r="K57" s="3">
         <v>70100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2530,35 +2660,38 @@
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="E58" s="3">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="F58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G58" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="H58" s="3">
-        <v>4400</v>
+        <v>3600</v>
       </c>
       <c r="I58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2571,35 +2704,38 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65200</v>
+        <v>68000</v>
       </c>
       <c r="E59" s="3">
-        <v>56900</v>
+        <v>64100</v>
       </c>
       <c r="F59" s="3">
-        <v>57800</v>
+        <v>55900</v>
       </c>
       <c r="G59" s="3">
-        <v>56900</v>
+        <v>56800</v>
       </c>
       <c r="H59" s="3">
+        <v>55900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>52000</v>
+      </c>
+      <c r="J59" s="3">
         <v>52800</v>
       </c>
-      <c r="I59" s="3">
-        <v>53700</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2612,35 +2748,38 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>130900</v>
+        <v>144200</v>
       </c>
       <c r="E60" s="3">
-        <v>128100</v>
+        <v>128800</v>
       </c>
       <c r="F60" s="3">
-        <v>118900</v>
+        <v>125900</v>
       </c>
       <c r="G60" s="3">
-        <v>128100</v>
+        <v>116900</v>
       </c>
       <c r="H60" s="3">
-        <v>122600</v>
+        <v>125900</v>
       </c>
       <c r="I60" s="3">
-        <v>133500</v>
+        <v>120600</v>
       </c>
       <c r="J60" s="3">
+        <v>131200</v>
+      </c>
+      <c r="K60" s="3">
         <v>125500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2653,35 +2792,38 @@
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8100</v>
+        <v>9400</v>
       </c>
       <c r="E61" s="3">
-        <v>7300</v>
+        <v>8000</v>
       </c>
       <c r="F61" s="3">
-        <v>8800</v>
+        <v>7200</v>
       </c>
       <c r="G61" s="3">
-        <v>7300</v>
+        <v>8600</v>
       </c>
       <c r="H61" s="3">
-        <v>7900</v>
+        <v>7200</v>
       </c>
       <c r="I61" s="3">
         <v>7800</v>
       </c>
       <c r="J61" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K61" s="3">
         <v>7200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2703,26 +2848,26 @@
         <v>1500</v>
       </c>
       <c r="E62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3012,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>139700</v>
+        <v>154600</v>
       </c>
       <c r="E66" s="3">
-        <v>136500</v>
+        <v>137400</v>
       </c>
       <c r="F66" s="3">
-        <v>128600</v>
+        <v>134200</v>
       </c>
       <c r="G66" s="3">
-        <v>136500</v>
+        <v>126500</v>
       </c>
       <c r="H66" s="3">
-        <v>130100</v>
+        <v>134200</v>
       </c>
       <c r="I66" s="3">
-        <v>141000</v>
+        <v>127900</v>
       </c>
       <c r="J66" s="3">
+        <v>138600</v>
+      </c>
+      <c r="K66" s="3">
         <v>132500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1317800</v>
+        <v>-1364700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1186700</v>
+        <v>-1296000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1230700</v>
+        <v>-1167000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1186700</v>
+        <v>-1210400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1116800</v>
+        <v>-1167000</v>
       </c>
       <c r="I72" s="3">
-        <v>-1067800</v>
+        <v>-1098300</v>
       </c>
       <c r="J72" s="3">
+        <v>-1050100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1004600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3426,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>94300</v>
+        <v>264100</v>
       </c>
       <c r="E76" s="3">
-        <v>219000</v>
+        <v>92700</v>
       </c>
       <c r="F76" s="3">
-        <v>174900</v>
+        <v>215400</v>
       </c>
       <c r="G76" s="3">
-        <v>219000</v>
+        <v>172000</v>
       </c>
       <c r="H76" s="3">
-        <v>288900</v>
+        <v>215400</v>
       </c>
       <c r="I76" s="3">
-        <v>337900</v>
+        <v>284100</v>
       </c>
       <c r="J76" s="3">
+        <v>332300</v>
+      </c>
+      <c r="K76" s="3">
         <v>97000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,81 +3514,87 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-38700</v>
+        <v>-55400</v>
       </c>
       <c r="E81" s="3">
-        <v>-47000</v>
+        <v>-38000</v>
       </c>
       <c r="F81" s="3">
-        <v>-50500</v>
+        <v>-46200</v>
       </c>
       <c r="G81" s="3">
-        <v>-75900</v>
+        <v>-49700</v>
       </c>
       <c r="H81" s="3">
-        <v>-59600</v>
+        <v>-74700</v>
       </c>
       <c r="I81" s="3">
-        <v>-81000</v>
+        <v>-58600</v>
       </c>
       <c r="J81" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-54700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>8</v>
       </c>
@@ -3413,8 +3607,11 @@
       <c r="O81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,35 +3627,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E83" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="F83" s="3">
         <v>2500</v>
       </c>
       <c r="G83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H83" s="3">
         <v>2800</v>
       </c>
-      <c r="H83" s="3">
-        <v>2500</v>
-      </c>
       <c r="I83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J83" s="3">
         <v>2100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,35 +3889,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-24700</v>
+        <v>-31300</v>
       </c>
       <c r="E89" s="3">
-        <v>-14400</v>
+        <v>-24300</v>
       </c>
       <c r="F89" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-47000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-61000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-51100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-59400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-47000</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,13 +3953,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
@@ -3749,20 +3969,20 @@
         <v>-500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2500</v>
+        <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1800</v>
+        <v>-2400</v>
       </c>
       <c r="I91" s="3">
         <v>-1700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,35 +4083,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
-        <v>74100</v>
-      </c>
       <c r="G94" s="3">
+        <v>72900</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="H94" s="3">
-        <v>-76800</v>
-      </c>
       <c r="I94" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,35 +4321,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>224700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-800</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-2000</v>
       </c>
       <c r="F100" s="3">
         <v>-1900</v>
       </c>
       <c r="G100" s="3">
-        <v>-5000</v>
+        <v>-1900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2800</v>
+        <v>-4900</v>
       </c>
       <c r="I100" s="3">
-        <v>301600</v>
+        <v>-2700</v>
       </c>
       <c r="J100" s="3">
+        <v>296600</v>
+      </c>
+      <c r="K100" s="3">
         <v>85200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4120,35 +4365,38 @@
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6100</v>
+        <v>-7300</v>
       </c>
       <c r="E101" s="3">
-        <v>-3100</v>
+        <v>-6000</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>3900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4161,35 +4409,38 @@
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-32500</v>
+        <v>185600</v>
       </c>
       <c r="E102" s="3">
-        <v>-20100</v>
+        <v>-32000</v>
       </c>
       <c r="F102" s="3">
-        <v>25300</v>
+        <v>-19800</v>
       </c>
       <c r="G102" s="3">
-        <v>-68200</v>
+        <v>24900</v>
       </c>
       <c r="H102" s="3">
-        <v>-126700</v>
+        <v>-67100</v>
       </c>
       <c r="I102" s="3">
-        <v>240100</v>
+        <v>-124600</v>
       </c>
       <c r="J102" s="3">
+        <v>236200</v>
+      </c>
+      <c r="K102" s="3">
         <v>37800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>8</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>JMIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49200</v>
+        <v>33600</v>
       </c>
       <c r="E8" s="3">
-        <v>39600</v>
+        <v>51200</v>
       </c>
       <c r="F8" s="3">
-        <v>41100</v>
+        <v>41300</v>
       </c>
       <c r="G8" s="3">
-        <v>34500</v>
+        <v>42800</v>
       </c>
       <c r="H8" s="3">
-        <v>58000</v>
+        <v>35900</v>
       </c>
       <c r="I8" s="3">
-        <v>47200</v>
+        <v>60400</v>
       </c>
       <c r="J8" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K8" s="3">
         <v>46100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>50200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16300</v>
+        <v>8500</v>
       </c>
       <c r="E9" s="3">
-        <v>12300</v>
+        <v>16900</v>
       </c>
       <c r="F9" s="3">
-        <v>13700</v>
+        <v>12800</v>
       </c>
       <c r="G9" s="3">
-        <v>12800</v>
+        <v>14300</v>
       </c>
       <c r="H9" s="3">
-        <v>28800</v>
+        <v>13300</v>
       </c>
       <c r="I9" s="3">
+        <v>29900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K9" s="3">
         <v>25800</v>
       </c>
-      <c r="J9" s="3">
-        <v>25800</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32900</v>
+        <v>25000</v>
       </c>
       <c r="E10" s="3">
-        <v>27400</v>
+        <v>34300</v>
       </c>
       <c r="F10" s="3">
-        <v>27300</v>
+        <v>28500</v>
       </c>
       <c r="G10" s="3">
-        <v>21700</v>
+        <v>28500</v>
       </c>
       <c r="H10" s="3">
-        <v>29200</v>
+        <v>22600</v>
       </c>
       <c r="I10" s="3">
-        <v>21400</v>
+        <v>30500</v>
       </c>
       <c r="J10" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K10" s="3">
         <v>20300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4800</v>
+        <v>8400</v>
       </c>
       <c r="E12" s="3">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="F12" s="3">
-        <v>8300</v>
+        <v>3800</v>
       </c>
       <c r="G12" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="H12" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="I12" s="3">
-        <v>8200</v>
+        <v>9500</v>
       </c>
       <c r="J12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,19 +1033,22 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>2400</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+        <v>2500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2300</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1042,8 +1065,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,38 +1098,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>96100</v>
+        <v>74800</v>
       </c>
       <c r="E17" s="3">
-        <v>72500</v>
+        <v>100100</v>
       </c>
       <c r="F17" s="3">
-        <v>85300</v>
+        <v>75500</v>
       </c>
       <c r="G17" s="3">
-        <v>85900</v>
+        <v>88800</v>
       </c>
       <c r="H17" s="3">
-        <v>129900</v>
+        <v>89400</v>
       </c>
       <c r="I17" s="3">
-        <v>111400</v>
+        <v>135200</v>
       </c>
       <c r="J17" s="3">
+        <v>116000</v>
+      </c>
+      <c r="K17" s="3">
         <v>124600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>92500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1116,38 +1143,41 @@
       <c r="P17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-47000</v>
+        <v>-41200</v>
       </c>
       <c r="E18" s="3">
-        <v>-32900</v>
+        <v>-48900</v>
       </c>
       <c r="F18" s="3">
-        <v>-44200</v>
+        <v>-34200</v>
       </c>
       <c r="G18" s="3">
-        <v>-51400</v>
+        <v>-46100</v>
       </c>
       <c r="H18" s="3">
-        <v>-71900</v>
+        <v>-53500</v>
       </c>
       <c r="I18" s="3">
-        <v>-64200</v>
+        <v>-74800</v>
       </c>
       <c r="J18" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-78400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-54500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,38 +1211,39 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6800</v>
+        <v>16200</v>
       </c>
       <c r="E20" s="3">
-        <v>-4300</v>
+        <v>-7100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1500</v>
+        <v>-4500</v>
       </c>
       <c r="G20" s="3">
-        <v>1800</v>
+        <v>-1600</v>
       </c>
       <c r="H20" s="3">
-        <v>-2300</v>
+        <v>1900</v>
       </c>
       <c r="I20" s="3">
-        <v>5200</v>
+        <v>-2400</v>
       </c>
       <c r="J20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1222,38 +1256,41 @@
       <c r="P20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-51400</v>
+        <v>-22700</v>
       </c>
       <c r="E21" s="3">
-        <v>-34900</v>
+        <v>-53500</v>
       </c>
       <c r="F21" s="3">
-        <v>-43300</v>
+        <v>-36400</v>
       </c>
       <c r="G21" s="3">
-        <v>-47100</v>
+        <v>-45100</v>
       </c>
       <c r="H21" s="3">
-        <v>-71400</v>
+        <v>-49000</v>
       </c>
       <c r="I21" s="3">
-        <v>-56500</v>
+        <v>-74300</v>
       </c>
       <c r="J21" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-77400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-52700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-53800</v>
+        <v>-25000</v>
       </c>
       <c r="E23" s="3">
-        <v>-37200</v>
+        <v>-56000</v>
       </c>
       <c r="F23" s="3">
-        <v>-45700</v>
+        <v>-38700</v>
       </c>
       <c r="G23" s="3">
-        <v>-49600</v>
+        <v>-47600</v>
       </c>
       <c r="H23" s="3">
-        <v>-74200</v>
+        <v>-51700</v>
       </c>
       <c r="I23" s="3">
-        <v>-59000</v>
+        <v>-77300</v>
       </c>
       <c r="J23" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-79500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-54700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3">
         <v>-37300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
-        <v>-200</v>
-      </c>
       <c r="J24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,38 +1491,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-55200</v>
+        <v>-25300</v>
       </c>
       <c r="E26" s="3">
-        <v>-38100</v>
+        <v>-57500</v>
       </c>
       <c r="F26" s="3">
-        <v>-46300</v>
+        <v>-39700</v>
       </c>
       <c r="G26" s="3">
-        <v>-49700</v>
+        <v>-48200</v>
       </c>
       <c r="H26" s="3">
-        <v>-74800</v>
+        <v>-51800</v>
       </c>
       <c r="I26" s="3">
-        <v>-58700</v>
+        <v>-77900</v>
       </c>
       <c r="J26" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-79700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-54800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1486,38 +1538,41 @@
       <c r="P26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-55400</v>
+        <v>-25300</v>
       </c>
       <c r="E27" s="3">
-        <v>-38000</v>
+        <v>-57700</v>
       </c>
       <c r="F27" s="3">
-        <v>-46200</v>
+        <v>-39600</v>
       </c>
       <c r="G27" s="3">
-        <v>-49700</v>
+        <v>-48100</v>
       </c>
       <c r="H27" s="3">
-        <v>-74700</v>
+        <v>-51700</v>
       </c>
       <c r="I27" s="3">
-        <v>-58600</v>
+        <v>-77700</v>
       </c>
       <c r="J27" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-79600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-54700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,38 +1773,41 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6800</v>
+        <v>-16200</v>
       </c>
       <c r="E32" s="3">
-        <v>4300</v>
+        <v>7100</v>
       </c>
       <c r="F32" s="3">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1800</v>
+        <v>1600</v>
       </c>
       <c r="H32" s="3">
-        <v>2300</v>
+        <v>-1900</v>
       </c>
       <c r="I32" s="3">
-        <v>-5200</v>
+        <v>2400</v>
       </c>
       <c r="J32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1750,38 +1820,41 @@
       <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-55400</v>
+        <v>-25300</v>
       </c>
       <c r="E33" s="3">
-        <v>-38000</v>
+        <v>-57700</v>
       </c>
       <c r="F33" s="3">
-        <v>-46200</v>
+        <v>-39600</v>
       </c>
       <c r="G33" s="3">
-        <v>-49700</v>
+        <v>-48100</v>
       </c>
       <c r="H33" s="3">
-        <v>-74700</v>
+        <v>-51700</v>
       </c>
       <c r="I33" s="3">
-        <v>-58600</v>
+        <v>-77700</v>
       </c>
       <c r="J33" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-79600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-54700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,38 +1914,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-55400</v>
+        <v>-25300</v>
       </c>
       <c r="E35" s="3">
-        <v>-38000</v>
+        <v>-57700</v>
       </c>
       <c r="F35" s="3">
-        <v>-46200</v>
+        <v>-39600</v>
       </c>
       <c r="G35" s="3">
-        <v>-49700</v>
+        <v>-48100</v>
       </c>
       <c r="H35" s="3">
-        <v>-74700</v>
+        <v>-51700</v>
       </c>
       <c r="I35" s="3">
-        <v>-58600</v>
+        <v>-77700</v>
       </c>
       <c r="J35" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-79600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-54700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>358700</v>
+        <v>594800</v>
       </c>
       <c r="E41" s="3">
-        <v>173100</v>
+        <v>373500</v>
       </c>
       <c r="F41" s="3">
-        <v>200000</v>
+        <v>180300</v>
       </c>
       <c r="G41" s="3">
-        <v>224900</v>
+        <v>208300</v>
       </c>
       <c r="H41" s="3">
-        <v>200000</v>
+        <v>234200</v>
       </c>
       <c r="I41" s="3">
-        <v>267100</v>
+        <v>208300</v>
       </c>
       <c r="J41" s="3">
+        <v>278200</v>
+      </c>
+      <c r="K41" s="3">
         <v>391700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>158100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2011,31 +2098,34 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E42" s="3">
         <v>1200</v>
       </c>
       <c r="F42" s="3">
-        <v>73400</v>
+        <v>1300</v>
       </c>
       <c r="G42" s="3">
+        <v>76500</v>
+      </c>
+      <c r="H42" s="3">
         <v>500</v>
       </c>
-      <c r="H42" s="3">
-        <v>73400</v>
-      </c>
       <c r="I42" s="3">
-        <v>75400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>76500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>78600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2055,38 +2145,41 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17000</v>
+        <v>124700</v>
       </c>
       <c r="E43" s="3">
-        <v>19100</v>
+        <v>17700</v>
       </c>
       <c r="F43" s="3">
-        <v>27100</v>
+        <v>19900</v>
       </c>
       <c r="G43" s="3">
-        <v>25000</v>
+        <v>28200</v>
       </c>
       <c r="H43" s="3">
-        <v>27100</v>
+        <v>26100</v>
       </c>
       <c r="I43" s="3">
-        <v>24900</v>
+        <v>28200</v>
       </c>
       <c r="J43" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K43" s="3">
         <v>30800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2099,38 +2192,41 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7900</v>
+        <v>9900</v>
       </c>
       <c r="E44" s="3">
-        <v>9000</v>
+        <v>8200</v>
       </c>
       <c r="F44" s="3">
-        <v>11800</v>
+        <v>9400</v>
       </c>
       <c r="G44" s="3">
-        <v>10600</v>
+        <v>12200</v>
       </c>
       <c r="H44" s="3">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="I44" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="J44" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K44" s="3">
         <v>16500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2143,38 +2239,41 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12200</v>
+        <v>12900</v>
       </c>
       <c r="E45" s="3">
-        <v>7100</v>
+        <v>12700</v>
       </c>
       <c r="F45" s="3">
-        <v>14800</v>
+        <v>7300</v>
       </c>
       <c r="G45" s="3">
-        <v>14600</v>
+        <v>15400</v>
       </c>
       <c r="H45" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="I45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K45" s="3">
         <v>10000</v>
       </c>
-      <c r="J45" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,38 +2286,41 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>397000</v>
+        <v>743400</v>
       </c>
       <c r="E46" s="3">
-        <v>209600</v>
+        <v>413400</v>
       </c>
       <c r="F46" s="3">
-        <v>327100</v>
+        <v>218200</v>
       </c>
       <c r="G46" s="3">
-        <v>275600</v>
+        <v>340700</v>
       </c>
       <c r="H46" s="3">
-        <v>327100</v>
+        <v>287000</v>
       </c>
       <c r="I46" s="3">
-        <v>389500</v>
+        <v>340700</v>
       </c>
       <c r="J46" s="3">
+        <v>405600</v>
+      </c>
+      <c r="K46" s="3">
         <v>449100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>209000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,38 +2380,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19500</v>
+        <v>19700</v>
       </c>
       <c r="E48" s="3">
-        <v>18200</v>
+        <v>20300</v>
       </c>
       <c r="F48" s="3">
-        <v>20500</v>
+        <v>19000</v>
       </c>
       <c r="G48" s="3">
-        <v>21200</v>
+        <v>21400</v>
       </c>
       <c r="H48" s="3">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="I48" s="3">
-        <v>20500</v>
+        <v>21400</v>
       </c>
       <c r="J48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K48" s="3">
         <v>19700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,16 +2439,16 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
+        <v>500</v>
+      </c>
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -2348,8 +2459,8 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F52" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G52" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="H52" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I52" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J52" s="3">
         <v>2000</v>
       </c>
       <c r="K52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>418700</v>
+        <v>765500</v>
       </c>
       <c r="E54" s="3">
-        <v>230100</v>
+        <v>436000</v>
       </c>
       <c r="F54" s="3">
-        <v>349600</v>
+        <v>239600</v>
       </c>
       <c r="G54" s="3">
-        <v>298500</v>
+        <v>364000</v>
       </c>
       <c r="H54" s="3">
-        <v>349600</v>
+        <v>310800</v>
       </c>
       <c r="I54" s="3">
-        <v>412000</v>
+        <v>364000</v>
       </c>
       <c r="J54" s="3">
+        <v>429000</v>
+      </c>
+      <c r="K54" s="3">
         <v>470900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>229600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,38 +2749,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>72700</v>
+        <v>75500</v>
       </c>
       <c r="E57" s="3">
-        <v>61600</v>
+        <v>75700</v>
       </c>
       <c r="F57" s="3">
-        <v>66400</v>
+        <v>64200</v>
       </c>
       <c r="G57" s="3">
-        <v>56700</v>
+        <v>69100</v>
       </c>
       <c r="H57" s="3">
-        <v>66400</v>
+        <v>59000</v>
       </c>
       <c r="I57" s="3">
-        <v>64300</v>
+        <v>69100</v>
       </c>
       <c r="J57" s="3">
+        <v>67000</v>
+      </c>
+      <c r="K57" s="3">
         <v>74300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>70100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,38 +2794,41 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="E58" s="3">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="F58" s="3">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="G58" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="H58" s="3">
         <v>3600</v>
       </c>
       <c r="I58" s="3">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="J58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2707,38 +2841,41 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>68000</v>
+        <v>72100</v>
       </c>
       <c r="E59" s="3">
-        <v>64100</v>
+        <v>70800</v>
       </c>
       <c r="F59" s="3">
-        <v>55900</v>
+        <v>66800</v>
       </c>
       <c r="G59" s="3">
-        <v>56800</v>
+        <v>58300</v>
       </c>
       <c r="H59" s="3">
-        <v>55900</v>
+        <v>59200</v>
       </c>
       <c r="I59" s="3">
-        <v>52000</v>
+        <v>58300</v>
       </c>
       <c r="J59" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K59" s="3">
         <v>52800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2751,38 +2888,41 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>144200</v>
+        <v>151500</v>
       </c>
       <c r="E60" s="3">
-        <v>128800</v>
+        <v>150100</v>
       </c>
       <c r="F60" s="3">
-        <v>125900</v>
+        <v>134100</v>
       </c>
       <c r="G60" s="3">
-        <v>116900</v>
+        <v>131100</v>
       </c>
       <c r="H60" s="3">
-        <v>125900</v>
+        <v>121700</v>
       </c>
       <c r="I60" s="3">
-        <v>120600</v>
+        <v>131100</v>
       </c>
       <c r="J60" s="3">
+        <v>125500</v>
+      </c>
+      <c r="K60" s="3">
         <v>131200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>125500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2795,38 +2935,41 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="E61" s="3">
-        <v>8000</v>
+        <v>9700</v>
       </c>
       <c r="F61" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K61" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L61" s="3">
         <v>7200</v>
       </c>
-      <c r="G61" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>7200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>7200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,38 +2982,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
-        <v>1400</v>
-      </c>
       <c r="F62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G62" s="3">
         <v>1700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1600</v>
       </c>
       <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>1700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>154600</v>
+        <v>162300</v>
       </c>
       <c r="E66" s="3">
-        <v>137400</v>
+        <v>161000</v>
       </c>
       <c r="F66" s="3">
-        <v>134200</v>
+        <v>143100</v>
       </c>
       <c r="G66" s="3">
-        <v>126500</v>
+        <v>139800</v>
       </c>
       <c r="H66" s="3">
-        <v>134200</v>
+        <v>131700</v>
       </c>
       <c r="I66" s="3">
-        <v>127900</v>
+        <v>139800</v>
       </c>
       <c r="J66" s="3">
+        <v>133200</v>
+      </c>
+      <c r="K66" s="3">
         <v>138600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>132500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3424,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1364700</v>
+        <v>-1452300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1296000</v>
+        <v>-1421100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1167000</v>
+        <v>-1349500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1210400</v>
+        <v>-1215200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1167000</v>
+        <v>-1260300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1098300</v>
+        <v>-1215200</v>
       </c>
       <c r="J72" s="3">
+        <v>-1143700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1050100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1004600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>264100</v>
+        <v>603200</v>
       </c>
       <c r="E76" s="3">
-        <v>92700</v>
+        <v>275000</v>
       </c>
       <c r="F76" s="3">
-        <v>215400</v>
+        <v>96500</v>
       </c>
       <c r="G76" s="3">
-        <v>172000</v>
+        <v>224300</v>
       </c>
       <c r="H76" s="3">
-        <v>215400</v>
+        <v>179100</v>
       </c>
       <c r="I76" s="3">
-        <v>284100</v>
+        <v>224300</v>
       </c>
       <c r="J76" s="3">
+        <v>295800</v>
+      </c>
+      <c r="K76" s="3">
         <v>332300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>97000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,87 +3706,93 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-55400</v>
+        <v>-25300</v>
       </c>
       <c r="E81" s="3">
-        <v>-38000</v>
+        <v>-57700</v>
       </c>
       <c r="F81" s="3">
-        <v>-46200</v>
+        <v>-39600</v>
       </c>
       <c r="G81" s="3">
-        <v>-49700</v>
+        <v>-48100</v>
       </c>
       <c r="H81" s="3">
-        <v>-74700</v>
+        <v>-51700</v>
       </c>
       <c r="I81" s="3">
-        <v>-58600</v>
+        <v>-77700</v>
       </c>
       <c r="J81" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-79600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-54700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>8</v>
       </c>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,38 +3826,39 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="F83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,38 +4106,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-31300</v>
+        <v>-36100</v>
       </c>
       <c r="E89" s="3">
-        <v>-24300</v>
+        <v>-32600</v>
       </c>
       <c r="F89" s="3">
-        <v>-14100</v>
+        <v>-25300</v>
       </c>
       <c r="G89" s="3">
-        <v>-46200</v>
+        <v>-14700</v>
       </c>
       <c r="H89" s="3">
-        <v>-59900</v>
+        <v>-48100</v>
       </c>
       <c r="I89" s="3">
-        <v>-50200</v>
+        <v>-62400</v>
       </c>
       <c r="J89" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-58400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-47000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,38 +4174,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
       </c>
       <c r="G91" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2400</v>
+        <v>-600</v>
       </c>
       <c r="I91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,38 +4313,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
-        <v>-900</v>
-      </c>
       <c r="F94" s="3">
-        <v>-700</v>
+        <v>-1000</v>
       </c>
       <c r="G94" s="3">
-        <v>72900</v>
+        <v>-800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2300</v>
+        <v>75900</v>
       </c>
       <c r="I94" s="3">
-        <v>-75500</v>
+        <v>-2400</v>
       </c>
       <c r="J94" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,38 +4567,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>224700</v>
+        <v>245200</v>
       </c>
       <c r="E100" s="3">
+        <v>234000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-4900</v>
-      </c>
       <c r="I100" s="3">
-        <v>-2700</v>
+        <v>-5100</v>
       </c>
       <c r="J100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K100" s="3">
         <v>296600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>85200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4368,38 +4614,41 @@
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7300</v>
+        <v>12500</v>
       </c>
       <c r="E101" s="3">
-        <v>-6000</v>
+        <v>-7600</v>
       </c>
       <c r="F101" s="3">
-        <v>-3000</v>
+        <v>-6200</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-3100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4412,38 +4661,41 @@
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>185600</v>
+        <v>221300</v>
       </c>
       <c r="E102" s="3">
-        <v>-32000</v>
+        <v>193200</v>
       </c>
       <c r="F102" s="3">
-        <v>-19800</v>
+        <v>-33300</v>
       </c>
       <c r="G102" s="3">
-        <v>24900</v>
+        <v>-20600</v>
       </c>
       <c r="H102" s="3">
-        <v>-67100</v>
+        <v>25900</v>
       </c>
       <c r="I102" s="3">
-        <v>-124600</v>
+        <v>-69900</v>
       </c>
       <c r="J102" s="3">
+        <v>-129700</v>
+      </c>
+      <c r="K102" s="3">
         <v>236200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>37800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>JMIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33600</v>
+        <v>40200</v>
       </c>
       <c r="E8" s="3">
-        <v>51200</v>
+        <v>33000</v>
       </c>
       <c r="F8" s="3">
-        <v>41300</v>
+        <v>41800</v>
       </c>
       <c r="G8" s="3">
-        <v>42800</v>
+        <v>33700</v>
       </c>
       <c r="H8" s="3">
-        <v>35900</v>
+        <v>38500</v>
       </c>
       <c r="I8" s="3">
-        <v>60400</v>
+        <v>32300</v>
       </c>
       <c r="J8" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K8" s="3">
         <v>49100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>50200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="E9" s="3">
-        <v>16900</v>
+        <v>8400</v>
       </c>
       <c r="F9" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H9" s="3">
         <v>12800</v>
       </c>
-      <c r="G9" s="3">
-        <v>14300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>13300</v>
-      </c>
       <c r="I9" s="3">
-        <v>29900</v>
+        <v>12000</v>
       </c>
       <c r="J9" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K9" s="3">
         <v>26900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25000</v>
+        <v>26700</v>
       </c>
       <c r="E10" s="3">
-        <v>34300</v>
+        <v>24600</v>
       </c>
       <c r="F10" s="3">
-        <v>28500</v>
+        <v>28000</v>
       </c>
       <c r="G10" s="3">
-        <v>28500</v>
+        <v>23300</v>
       </c>
       <c r="H10" s="3">
-        <v>22600</v>
+        <v>25700</v>
       </c>
       <c r="I10" s="3">
-        <v>30500</v>
+        <v>20300</v>
       </c>
       <c r="J10" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K10" s="3">
         <v>22200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,46 +918,49 @@
         <v>8400</v>
       </c>
       <c r="E12" s="3">
-        <v>5000</v>
+        <v>8300</v>
       </c>
       <c r="F12" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="G12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K12" s="3">
         <v>8600</v>
       </c>
-      <c r="H12" s="3">
-        <v>8800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8600</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,22 +1056,25 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>2500</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>2000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1068,8 +1091,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,41 +1125,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>74800</v>
+        <v>91800</v>
       </c>
       <c r="E17" s="3">
-        <v>100100</v>
+        <v>73600</v>
       </c>
       <c r="F17" s="3">
-        <v>75500</v>
+        <v>81700</v>
       </c>
       <c r="G17" s="3">
-        <v>88800</v>
+        <v>61600</v>
       </c>
       <c r="H17" s="3">
-        <v>89400</v>
+        <v>79800</v>
       </c>
       <c r="I17" s="3">
-        <v>135200</v>
+        <v>80500</v>
       </c>
       <c r="J17" s="3">
+        <v>110400</v>
+      </c>
+      <c r="K17" s="3">
         <v>116000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>124600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>92500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1146,41 +1173,44 @@
       <c r="Q17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-41200</v>
+        <v>-51600</v>
       </c>
       <c r="E18" s="3">
-        <v>-48900</v>
+        <v>-40600</v>
       </c>
       <c r="F18" s="3">
-        <v>-34200</v>
+        <v>-39900</v>
       </c>
       <c r="G18" s="3">
-        <v>-46100</v>
+        <v>-27900</v>
       </c>
       <c r="H18" s="3">
-        <v>-53500</v>
+        <v>-41300</v>
       </c>
       <c r="I18" s="3">
-        <v>-74800</v>
+        <v>-48200</v>
       </c>
       <c r="J18" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-66800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-78400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-54500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,41 +1245,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16200</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-7100</v>
+        <v>15900</v>
       </c>
       <c r="F20" s="3">
-        <v>-4500</v>
+        <v>-5800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1600</v>
+        <v>-3700</v>
       </c>
       <c r="H20" s="3">
-        <v>1900</v>
+        <v>-1500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2400</v>
+        <v>1700</v>
       </c>
       <c r="J20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K20" s="3">
         <v>5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1259,41 +1293,44 @@
       <c r="Q20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-22700</v>
+        <v>-48800</v>
       </c>
       <c r="E21" s="3">
-        <v>-53500</v>
+        <v>-22800</v>
       </c>
       <c r="F21" s="3">
-        <v>-36400</v>
+        <v>-43700</v>
       </c>
       <c r="G21" s="3">
-        <v>-45100</v>
+        <v>-30100</v>
       </c>
       <c r="H21" s="3">
-        <v>-49000</v>
+        <v>-40300</v>
       </c>
       <c r="I21" s="3">
-        <v>-74300</v>
+        <v>-44400</v>
       </c>
       <c r="J21" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-58900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-77400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-52700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25000</v>
+        <v>-51500</v>
       </c>
       <c r="E23" s="3">
-        <v>-56000</v>
+        <v>-24700</v>
       </c>
       <c r="F23" s="3">
-        <v>-38700</v>
+        <v>-45700</v>
       </c>
       <c r="G23" s="3">
-        <v>-47600</v>
+        <v>-31600</v>
       </c>
       <c r="H23" s="3">
-        <v>-51700</v>
+        <v>-42800</v>
       </c>
       <c r="I23" s="3">
-        <v>-77300</v>
+        <v>-46500</v>
       </c>
       <c r="J23" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-61400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-79500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-54700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-37300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>1500</v>
-      </c>
       <c r="F24" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H24" s="3">
+        <v>500</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>600</v>
-      </c>
       <c r="J24" s="3">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,41 +1543,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25300</v>
+        <v>-51200</v>
       </c>
       <c r="E26" s="3">
-        <v>-57500</v>
+        <v>-24900</v>
       </c>
       <c r="F26" s="3">
-        <v>-39700</v>
+        <v>-46900</v>
       </c>
       <c r="G26" s="3">
-        <v>-48200</v>
+        <v>-32400</v>
       </c>
       <c r="H26" s="3">
-        <v>-51800</v>
+        <v>-43300</v>
       </c>
       <c r="I26" s="3">
-        <v>-77900</v>
+        <v>-46600</v>
       </c>
       <c r="J26" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-61100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-79700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-54800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1541,41 +1593,44 @@
       <c r="Q26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25300</v>
+        <v>-51200</v>
       </c>
       <c r="E27" s="3">
-        <v>-57700</v>
+        <v>-24900</v>
       </c>
       <c r="F27" s="3">
-        <v>-39600</v>
+        <v>-47100</v>
       </c>
       <c r="G27" s="3">
-        <v>-48100</v>
+        <v>-32300</v>
       </c>
       <c r="H27" s="3">
-        <v>-51700</v>
+        <v>-43300</v>
       </c>
       <c r="I27" s="3">
-        <v>-77700</v>
+        <v>-46600</v>
       </c>
       <c r="J27" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-61000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-79600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-54700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,41 +1843,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16200</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>7100</v>
+        <v>-15900</v>
       </c>
       <c r="F32" s="3">
-        <v>4500</v>
+        <v>5800</v>
       </c>
       <c r="G32" s="3">
-        <v>1600</v>
+        <v>3700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1900</v>
+        <v>1500</v>
       </c>
       <c r="I32" s="3">
-        <v>2400</v>
+        <v>-1700</v>
       </c>
       <c r="J32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1823,41 +1893,44 @@
       <c r="Q32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25300</v>
+        <v>-51200</v>
       </c>
       <c r="E33" s="3">
-        <v>-57700</v>
+        <v>-24900</v>
       </c>
       <c r="F33" s="3">
-        <v>-39600</v>
+        <v>-47100</v>
       </c>
       <c r="G33" s="3">
-        <v>-48100</v>
+        <v>-32300</v>
       </c>
       <c r="H33" s="3">
-        <v>-51700</v>
+        <v>-43300</v>
       </c>
       <c r="I33" s="3">
-        <v>-77700</v>
+        <v>-46600</v>
       </c>
       <c r="J33" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-61000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-79600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-54700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,41 +1993,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25300</v>
+        <v>-51200</v>
       </c>
       <c r="E35" s="3">
-        <v>-57700</v>
+        <v>-24900</v>
       </c>
       <c r="F35" s="3">
-        <v>-39600</v>
+        <v>-47100</v>
       </c>
       <c r="G35" s="3">
-        <v>-48100</v>
+        <v>-32300</v>
       </c>
       <c r="H35" s="3">
-        <v>-51700</v>
+        <v>-43300</v>
       </c>
       <c r="I35" s="3">
-        <v>-77700</v>
+        <v>-46600</v>
       </c>
       <c r="J35" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-61000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-79600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-54700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>594800</v>
+        <v>637700</v>
       </c>
       <c r="E41" s="3">
-        <v>373500</v>
+        <v>485600</v>
       </c>
       <c r="F41" s="3">
-        <v>180300</v>
+        <v>373900</v>
       </c>
       <c r="G41" s="3">
-        <v>208300</v>
+        <v>147100</v>
       </c>
       <c r="H41" s="3">
-        <v>234200</v>
+        <v>170000</v>
       </c>
       <c r="I41" s="3">
-        <v>208300</v>
+        <v>191100</v>
       </c>
       <c r="J41" s="3">
+        <v>170000</v>
+      </c>
+      <c r="K41" s="3">
         <v>278200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>391700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>158100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2101,35 +2188,38 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E42" s="3">
+        <v>900</v>
+      </c>
+      <c r="F42" s="3">
         <v>1200</v>
       </c>
-      <c r="F42" s="3">
-        <v>1300</v>
-      </c>
       <c r="G42" s="3">
-        <v>76500</v>
+        <v>1000</v>
       </c>
       <c r="H42" s="3">
-        <v>500</v>
+        <v>62400</v>
       </c>
       <c r="I42" s="3">
-        <v>76500</v>
+        <v>400</v>
       </c>
       <c r="J42" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K42" s="3">
         <v>78600</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2148,41 +2238,44 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>124700</v>
+        <v>18200</v>
       </c>
       <c r="E43" s="3">
+        <v>101800</v>
+      </c>
+      <c r="F43" s="3">
         <v>17700</v>
       </c>
-      <c r="F43" s="3">
-        <v>19900</v>
-      </c>
       <c r="G43" s="3">
-        <v>28200</v>
+        <v>16300</v>
       </c>
       <c r="H43" s="3">
-        <v>26100</v>
+        <v>23100</v>
       </c>
       <c r="I43" s="3">
-        <v>28200</v>
+        <v>21300</v>
       </c>
       <c r="J43" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K43" s="3">
         <v>25900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>22500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2195,41 +2288,44 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9900</v>
+        <v>11400</v>
       </c>
       <c r="E44" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F44" s="3">
         <v>8200</v>
       </c>
-      <c r="F44" s="3">
-        <v>9400</v>
-      </c>
       <c r="G44" s="3">
-        <v>12200</v>
+        <v>7700</v>
       </c>
       <c r="H44" s="3">
-        <v>11100</v>
+        <v>10000</v>
       </c>
       <c r="I44" s="3">
-        <v>12200</v>
+        <v>9000</v>
       </c>
       <c r="J44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K44" s="3">
         <v>12600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2242,41 +2338,44 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12900</v>
+        <v>10900</v>
       </c>
       <c r="E45" s="3">
-        <v>12700</v>
+        <v>10500</v>
       </c>
       <c r="F45" s="3">
-        <v>7300</v>
+        <v>23200</v>
       </c>
       <c r="G45" s="3">
-        <v>15400</v>
+        <v>6000</v>
       </c>
       <c r="H45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="L45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M45" s="3">
         <v>15200</v>
       </c>
-      <c r="I45" s="3">
-        <v>15400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>10400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>15200</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2289,41 +2388,44 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>743400</v>
+        <v>679200</v>
       </c>
       <c r="E46" s="3">
-        <v>413400</v>
+        <v>606900</v>
       </c>
       <c r="F46" s="3">
-        <v>218200</v>
+        <v>413800</v>
       </c>
       <c r="G46" s="3">
-        <v>340700</v>
+        <v>178100</v>
       </c>
       <c r="H46" s="3">
-        <v>287000</v>
+        <v>278100</v>
       </c>
       <c r="I46" s="3">
-        <v>340700</v>
+        <v>234300</v>
       </c>
       <c r="J46" s="3">
+        <v>278100</v>
+      </c>
+      <c r="K46" s="3">
         <v>405600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>449100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>209000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,41 +2488,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>36900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>17400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="L48" s="3">
         <v>19700</v>
       </c>
-      <c r="E48" s="3">
-        <v>20300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>19000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>22000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>21400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>21400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>19700</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2430,31 +2538,34 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>400</v>
+      </c>
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
-        <v>600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>100</v>
-      </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2462,8 +2573,8 @@
       <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2688,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>1800</v>
       </c>
       <c r="G52" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="H52" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="I52" s="3">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="J52" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K52" s="3">
         <v>2000</v>
       </c>
       <c r="L52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>765500</v>
+        <v>701900</v>
       </c>
       <c r="E54" s="3">
-        <v>436000</v>
+        <v>624900</v>
       </c>
       <c r="F54" s="3">
-        <v>239600</v>
+        <v>436500</v>
       </c>
       <c r="G54" s="3">
-        <v>364000</v>
+        <v>195600</v>
       </c>
       <c r="H54" s="3">
-        <v>310800</v>
+        <v>297200</v>
       </c>
       <c r="I54" s="3">
-        <v>364000</v>
+        <v>253700</v>
       </c>
       <c r="J54" s="3">
+        <v>297200</v>
+      </c>
+      <c r="K54" s="3">
         <v>429000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>470900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>229600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +2880,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>75500</v>
+        <v>72200</v>
       </c>
       <c r="E57" s="3">
-        <v>75700</v>
+        <v>61600</v>
       </c>
       <c r="F57" s="3">
-        <v>64200</v>
+        <v>75800</v>
       </c>
       <c r="G57" s="3">
-        <v>69100</v>
+        <v>52400</v>
       </c>
       <c r="H57" s="3">
-        <v>59000</v>
+        <v>56400</v>
       </c>
       <c r="I57" s="3">
-        <v>69100</v>
+        <v>48200</v>
       </c>
       <c r="J57" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K57" s="3">
         <v>67000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>74300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>70100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,41 +2928,44 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="E58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F58" s="3">
         <v>3600</v>
       </c>
-      <c r="F58" s="3">
-        <v>3200</v>
-      </c>
       <c r="G58" s="3">
-        <v>3700</v>
+        <v>2600</v>
       </c>
       <c r="H58" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="I58" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="J58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2844,41 +2978,44 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72100</v>
+        <v>71700</v>
       </c>
       <c r="E59" s="3">
-        <v>70800</v>
+        <v>58900</v>
       </c>
       <c r="F59" s="3">
-        <v>66800</v>
+        <v>70900</v>
       </c>
       <c r="G59" s="3">
-        <v>58300</v>
+        <v>54500</v>
       </c>
       <c r="H59" s="3">
-        <v>59200</v>
+        <v>47600</v>
       </c>
       <c r="I59" s="3">
-        <v>58300</v>
+        <v>48300</v>
       </c>
       <c r="J59" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K59" s="3">
         <v>54100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2891,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>151500</v>
+        <v>147400</v>
       </c>
       <c r="E60" s="3">
-        <v>150100</v>
+        <v>123700</v>
       </c>
       <c r="F60" s="3">
-        <v>134100</v>
+        <v>150300</v>
       </c>
       <c r="G60" s="3">
-        <v>131100</v>
+        <v>109500</v>
       </c>
       <c r="H60" s="3">
-        <v>121700</v>
+        <v>107100</v>
       </c>
       <c r="I60" s="3">
-        <v>131100</v>
+        <v>99400</v>
       </c>
       <c r="J60" s="3">
+        <v>107100</v>
+      </c>
+      <c r="K60" s="3">
         <v>125500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>131200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>125500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2938,41 +3078,44 @@
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F61" s="3">
         <v>9800</v>
       </c>
-      <c r="E61" s="3">
-        <v>9700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>8300</v>
-      </c>
       <c r="G61" s="3">
-        <v>7500</v>
+        <v>6800</v>
       </c>
       <c r="H61" s="3">
-        <v>9000</v>
+        <v>6100</v>
       </c>
       <c r="I61" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="J61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K61" s="3">
         <v>8100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,41 +3128,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
         <v>1500</v>
       </c>
       <c r="G62" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="H62" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="I62" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+        <v>1400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>162300</v>
+        <v>158100</v>
       </c>
       <c r="E66" s="3">
-        <v>161000</v>
+        <v>132500</v>
       </c>
       <c r="F66" s="3">
-        <v>143100</v>
+        <v>161200</v>
       </c>
       <c r="G66" s="3">
-        <v>139800</v>
+        <v>116800</v>
       </c>
       <c r="H66" s="3">
-        <v>131700</v>
+        <v>114100</v>
       </c>
       <c r="I66" s="3">
-        <v>139800</v>
+        <v>107500</v>
       </c>
       <c r="J66" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K66" s="3">
         <v>133200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>138600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>132500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1452300</v>
+        <v>-1423900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1421100</v>
+        <v>-1185500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1349500</v>
+        <v>-1422700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1215200</v>
+        <v>-1101600</v>
       </c>
       <c r="H72" s="3">
-        <v>-1260300</v>
+        <v>-992000</v>
       </c>
       <c r="I72" s="3">
-        <v>-1215200</v>
+        <v>-1028900</v>
       </c>
       <c r="J72" s="3">
+        <v>-992000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1143700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1050100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1004600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>603200</v>
+        <v>543800</v>
       </c>
       <c r="E76" s="3">
-        <v>275000</v>
+        <v>492400</v>
       </c>
       <c r="F76" s="3">
-        <v>96500</v>
+        <v>275300</v>
       </c>
       <c r="G76" s="3">
-        <v>224300</v>
+        <v>78800</v>
       </c>
       <c r="H76" s="3">
-        <v>179100</v>
+        <v>183100</v>
       </c>
       <c r="I76" s="3">
-        <v>224300</v>
+        <v>146200</v>
       </c>
       <c r="J76" s="3">
+        <v>183100</v>
+      </c>
+      <c r="K76" s="3">
         <v>295800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>332300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>97000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,93 +3898,99 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25300</v>
+        <v>-51200</v>
       </c>
       <c r="E81" s="3">
-        <v>-57700</v>
+        <v>-24900</v>
       </c>
       <c r="F81" s="3">
-        <v>-39600</v>
+        <v>-47100</v>
       </c>
       <c r="G81" s="3">
-        <v>-48100</v>
+        <v>-32300</v>
       </c>
       <c r="H81" s="3">
-        <v>-51700</v>
+        <v>-43300</v>
       </c>
       <c r="I81" s="3">
-        <v>-77700</v>
+        <v>-46600</v>
       </c>
       <c r="J81" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-61000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-79600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-54700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>8</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,41 +4025,42 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2600</v>
-      </c>
       <c r="I83" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="J83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,41 +4323,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-36100</v>
+        <v>-32100</v>
       </c>
       <c r="E89" s="3">
-        <v>-32600</v>
+        <v>-29500</v>
       </c>
       <c r="F89" s="3">
-        <v>-25300</v>
+        <v>-26600</v>
       </c>
       <c r="G89" s="3">
-        <v>-14700</v>
+        <v>-20600</v>
       </c>
       <c r="H89" s="3">
-        <v>-48100</v>
+        <v>-12000</v>
       </c>
       <c r="I89" s="3">
-        <v>-62400</v>
+        <v>-39300</v>
       </c>
       <c r="J89" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-52300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-58400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-47000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,41 +4395,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,41 +4543,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>-1400</v>
       </c>
       <c r="E94" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="G94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>62000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
-        <v>75900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-78600</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,41 +4813,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>245200</v>
+        <v>137100</v>
       </c>
       <c r="E100" s="3">
-        <v>234000</v>
+        <v>200200</v>
       </c>
       <c r="F100" s="3">
-        <v>-800</v>
+        <v>191000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2000</v>
+        <v>-700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1900</v>
+        <v>-1700</v>
       </c>
       <c r="I100" s="3">
-        <v>-5100</v>
+        <v>-1600</v>
       </c>
       <c r="J100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>296600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>85200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4617,41 +4863,44 @@
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12500</v>
+        <v>-20600</v>
       </c>
       <c r="E101" s="3">
-        <v>-7600</v>
+        <v>10200</v>
       </c>
       <c r="F101" s="3">
         <v>-6200</v>
       </c>
       <c r="G101" s="3">
-        <v>-3100</v>
+        <v>-5100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4664,41 +4913,44 @@
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>221300</v>
+        <v>83100</v>
       </c>
       <c r="E102" s="3">
-        <v>193200</v>
+        <v>180700</v>
       </c>
       <c r="F102" s="3">
-        <v>-33300</v>
+        <v>157800</v>
       </c>
       <c r="G102" s="3">
-        <v>-20600</v>
+        <v>-27900</v>
       </c>
       <c r="H102" s="3">
-        <v>25900</v>
+        <v>-16100</v>
       </c>
       <c r="I102" s="3">
-        <v>-69900</v>
+        <v>21100</v>
       </c>
       <c r="J102" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-129700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>236200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>37800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>8</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>JMIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,257 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>115900</v>
+      </c>
+      <c r="F8" s="3">
         <v>40200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>33000</v>
       </c>
-      <c r="F8" s="3">
-        <v>41800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>33700</v>
-      </c>
       <c r="H8" s="3">
+        <v>49300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>110000</v>
+      </c>
+      <c r="J8" s="3">
         <v>38500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>32300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>49300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>49100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>46100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>38000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>50200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>37200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>27500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>31100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F9" s="3">
         <v>13500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>8400</v>
       </c>
-      <c r="F9" s="3">
-        <v>13800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10400</v>
-      </c>
       <c r="H9" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>37000</v>
+      </c>
+      <c r="J9" s="3">
         <v>12800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>12000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>24400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>26900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>25800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>19300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>33200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>23400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>17600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>21700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>76900</v>
+      </c>
+      <c r="F10" s="3">
         <v>26700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>24600</v>
       </c>
-      <c r="F10" s="3">
-        <v>28000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>23300</v>
-      </c>
       <c r="H10" s="3">
+        <v>33000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J10" s="3">
         <v>25700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>20300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>24900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>22200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>20300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>18700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>17000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>13800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>9900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>9300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F12" s="3">
         <v>8400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8300</v>
       </c>
-      <c r="F12" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3100</v>
-      </c>
       <c r="H12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>26200</v>
+      </c>
+      <c r="J12" s="3">
         <v>7800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>5900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,18 +1115,18 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
         <v>2000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1094,11 +1139,11 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,47 +1177,49 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>146700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>272100</v>
+      </c>
+      <c r="F17" s="3">
         <v>91800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>73600</v>
       </c>
-      <c r="F17" s="3">
-        <v>81700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>61600</v>
-      </c>
       <c r="H17" s="3">
+        <v>96800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>232900</v>
+      </c>
+      <c r="J17" s="3">
         <v>79800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>80500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>110400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>116000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>124600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>92500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1176,47 +1229,53 @@
       <c r="R17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-51600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-40600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-39900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-27900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="J18" s="3">
         <v>-41300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-48200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-61100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-66800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-78400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-54500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1226,8 +1285,14 @@
       <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,38 +1322,38 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>15900</v>
       </c>
-      <c r="F20" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>5500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1296,47 +1363,53 @@
       <c r="R20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-134600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-48800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-22800</v>
       </c>
-      <c r="F21" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-30100</v>
-      </c>
       <c r="H21" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-120500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-40300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-44400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-60700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-58900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-77400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-52700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1346,8 +1419,14 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1475,126 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-51500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-24700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-45700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-31600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-126600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-42800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-46500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-63100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-61400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-79500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-54700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3">
         <v>-37300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>800</v>
-      </c>
       <c r="H24" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="J24" s="3">
         <v>500</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>500</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,47 +1643,53 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-141800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-51200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-24900</v>
       </c>
-      <c r="F26" s="3">
-        <v>-46900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-32400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-128200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-43300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-46600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-63600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-61100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-79700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-54800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1596,47 +1699,53 @@
       <c r="R26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-51200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-24900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-32300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-43300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-46600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-63500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-61000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-79600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-54700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1646,8 +1755,14 @@
       <c r="R27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,38 +1994,38 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-15900</v>
       </c>
-      <c r="F32" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3700</v>
-      </c>
       <c r="H32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-5500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1896,47 +2035,53 @@
       <c r="R32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-51200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-24900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-32300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-43300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-46600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-63500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-61000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-79600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-54700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1946,8 +2091,14 @@
       <c r="R33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,47 +2147,53 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-51200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-24900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-32300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-43300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-46600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-63500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-61000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-79600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-54700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2046,63 +2203,75 @@
       <c r="R35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,47 +2312,49 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>184900</v>
+      </c>
+      <c r="F41" s="3">
         <v>637700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>485600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>373900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>147100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>170000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>191100</v>
       </c>
       <c r="J41" s="3">
         <v>170000</v>
       </c>
       <c r="K41" s="3">
+        <v>191100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>170000</v>
+      </c>
+      <c r="M41" s="3">
         <v>278200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>391700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>158100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2191,41 +2364,47 @@
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>395700</v>
+      </c>
+      <c r="E42" s="3">
         <v>1000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="3">
         <v>900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1000</v>
-      </c>
-      <c r="H42" s="3">
-        <v>62400</v>
-      </c>
-      <c r="I42" s="3">
-        <v>400</v>
       </c>
       <c r="J42" s="3">
         <v>62400</v>
       </c>
       <c r="K42" s="3">
+        <v>400</v>
+      </c>
+      <c r="L42" s="3">
+        <v>62400</v>
+      </c>
+      <c r="M42" s="3">
         <v>78600</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2241,47 +2420,53 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F43" s="3">
         <v>18200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>101800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>17700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>16300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>23100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>21300</v>
       </c>
       <c r="J43" s="3">
         <v>23100</v>
       </c>
       <c r="K43" s="3">
+        <v>21300</v>
+      </c>
+      <c r="L43" s="3">
+        <v>23100</v>
+      </c>
+      <c r="M43" s="3">
         <v>25900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>30800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>22500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2291,47 +2476,53 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F44" s="3">
         <v>11400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>8200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>7700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>9000</v>
       </c>
       <c r="J44" s="3">
         <v>10000</v>
       </c>
       <c r="K44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M44" s="3">
         <v>12600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>16500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>13200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2341,47 +2532,53 @@
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10900</v>
+        <v>5700</v>
       </c>
       <c r="E45" s="3">
         <v>10500</v>
       </c>
       <c r="F45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H45" s="3">
         <v>23200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>12400</v>
       </c>
       <c r="J45" s="3">
         <v>12600</v>
       </c>
       <c r="K45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="M45" s="3">
         <v>10400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>10000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>15200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2391,47 +2588,53 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>552600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>224100</v>
+      </c>
+      <c r="F46" s="3">
         <v>679200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>606900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>413800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>178100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>278100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>234300</v>
       </c>
       <c r="J46" s="3">
         <v>278100</v>
       </c>
       <c r="K46" s="3">
+        <v>234300</v>
+      </c>
+      <c r="L46" s="3">
+        <v>278100</v>
+      </c>
+      <c r="M46" s="3">
         <v>405600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>449100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>209000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2441,8 +2644,14 @@
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,47 +2700,53 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F48" s="3">
         <v>19800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>16100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>36900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>15500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>17400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>18000</v>
       </c>
       <c r="J48" s="3">
         <v>17400</v>
       </c>
       <c r="K48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="L48" s="3">
+        <v>17400</v>
+      </c>
+      <c r="M48" s="3">
         <v>21400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>19700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>18500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2541,46 +2756,52 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>400</v>
       </c>
       <c r="F49" s="3">
+        <v>400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>400</v>
+      </c>
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>100</v>
+      </c>
+      <c r="O49" s="3">
+        <v>100</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,47 +2924,53 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>399100</v>
+      </c>
+      <c r="F52" s="3">
         <v>2500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1800</v>
       </c>
       <c r="G52" s="3">
         <v>1500</v>
       </c>
       <c r="H52" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J52" s="3">
         <v>1600</v>
       </c>
       <c r="K52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2741,8 +2980,14 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,47 +3036,53 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>577700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>642400</v>
+      </c>
+      <c r="F54" s="3">
         <v>701900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>624900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>436500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>195600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>297200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>253700</v>
       </c>
       <c r="J54" s="3">
         <v>297200</v>
       </c>
       <c r="K54" s="3">
+        <v>253700</v>
+      </c>
+      <c r="L54" s="3">
+        <v>297200</v>
+      </c>
+      <c r="M54" s="3">
         <v>429000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>470900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>229600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2841,8 +3092,14 @@
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,47 +3140,49 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>70400</v>
+      </c>
+      <c r="F57" s="3">
         <v>72200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>61600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>75800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>52400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>56400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>48200</v>
       </c>
       <c r="J57" s="3">
         <v>56400</v>
       </c>
       <c r="K57" s="3">
+        <v>48200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>56400</v>
+      </c>
+      <c r="M57" s="3">
         <v>67000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>74300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>70100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2931,47 +3192,53 @@
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2900</v>
       </c>
       <c r="J58" s="3">
         <v>3100</v>
       </c>
       <c r="K58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2981,47 +3248,53 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>71500</v>
+      </c>
+      <c r="F59" s="3">
         <v>71700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>58900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>70900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>54500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>47600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>48300</v>
       </c>
       <c r="J59" s="3">
         <v>47600</v>
       </c>
       <c r="K59" s="3">
+        <v>48300</v>
+      </c>
+      <c r="L59" s="3">
+        <v>47600</v>
+      </c>
+      <c r="M59" s="3">
         <v>54100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>52800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>51300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3031,46 +3304,52 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>145300</v>
+      </c>
+      <c r="F60" s="3">
         <v>147400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>123700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>150300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>109500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>107100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>99400</v>
       </c>
       <c r="J60" s="3">
         <v>107100</v>
       </c>
       <c r="K60" s="3">
-        <v>125500</v>
+        <v>99400</v>
       </c>
       <c r="L60" s="3">
-        <v>131200</v>
+        <v>107100</v>
       </c>
       <c r="M60" s="3">
         <v>125500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
+      <c r="N60" s="3">
+        <v>131200</v>
+      </c>
+      <c r="O60" s="3">
+        <v>125500</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
@@ -3081,47 +3360,53 @@
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F61" s="3">
         <v>9300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>8000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>7300</v>
       </c>
       <c r="J61" s="3">
         <v>6100</v>
       </c>
       <c r="K61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M61" s="3">
         <v>8100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>7200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3131,47 +3416,53 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1500</v>
       </c>
       <c r="G62" s="3">
         <v>1200</v>
       </c>
       <c r="H62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I62" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="K62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3181,8 +3472,14 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,47 +3640,53 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>164700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>155100</v>
+      </c>
+      <c r="F66" s="3">
         <v>158100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>132500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>161200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>116800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>114100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>107500</v>
       </c>
       <c r="J66" s="3">
         <v>114100</v>
       </c>
       <c r="K66" s="3">
+        <v>107500</v>
+      </c>
+      <c r="L66" s="3">
+        <v>114100</v>
+      </c>
+      <c r="M66" s="3">
         <v>133200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>138600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>132500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3381,8 +3696,14 @@
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,47 +3942,53 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1557600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1480900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1423900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1185500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1422700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1101600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-992000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1028900</v>
       </c>
       <c r="J72" s="3">
         <v>-992000</v>
       </c>
       <c r="K72" s="3">
+        <v>-1028900</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-992000</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1143700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1050100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1004600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3651,8 +3998,14 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,47 +4166,53 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>413000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>487300</v>
+      </c>
+      <c r="F76" s="3">
         <v>543800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>492400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>275300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>78800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>183100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>146200</v>
       </c>
       <c r="J76" s="3">
         <v>183100</v>
       </c>
       <c r="K76" s="3">
+        <v>146200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>183100</v>
+      </c>
+      <c r="M76" s="3">
         <v>295800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>332300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>97000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3851,8 +4222,14 @@
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,102 +4278,114 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-51200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-24900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-32300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-43300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-46600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-63500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-61000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-79600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-54700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>8</v>
       </c>
@@ -4006,8 +4395,14 @@
       <c r="R81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,47 +4421,49 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4076,8 +4473,14 @@
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,47 +4753,53 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-107600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-32100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-29500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-26600</v>
       </c>
-      <c r="G89" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-12000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-39300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-51000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-52300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-58400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-47000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4376,8 +4809,14 @@
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,47 +4835,49 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-600</v>
       </c>
       <c r="G91" s="3">
         <v>-400</v>
       </c>
       <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4446,8 +4887,14 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,47 +4999,53 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-401700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-7900</v>
-      </c>
       <c r="H94" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>60600</v>
+      </c>
+      <c r="J94" s="3">
         <v>6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>62000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-78600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4596,8 +5055,14 @@
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,47 +5301,53 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>335700</v>
+      </c>
+      <c r="F100" s="3">
         <v>137100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200200</v>
       </c>
-      <c r="F100" s="3">
-        <v>191000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-700</v>
-      </c>
       <c r="H100" s="3">
+        <v>229000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>296600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>85200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4866,47 +5357,53 @@
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-20600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>10200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-5100</v>
-      </c>
       <c r="H101" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2600</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4916,47 +5413,53 @@
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-189000</v>
+      </c>
+      <c r="F102" s="3">
         <v>83100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>180700</v>
       </c>
-      <c r="F102" s="3">
-        <v>157800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-27900</v>
-      </c>
       <c r="H102" s="3">
+        <v>206100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="J102" s="3">
         <v>-16100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>21100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-57100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-129700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>236200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>37800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4964,6 +5467,12 @@
         <v>8</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -755,7 +755,7 @@
         <v>62000</v>
       </c>
       <c r="E8" s="3">
-        <v>115900</v>
+        <v>42700</v>
       </c>
       <c r="F8" s="3">
         <v>40200</v>
@@ -764,10 +764,10 @@
         <v>33000</v>
       </c>
       <c r="H8" s="3">
-        <v>49300</v>
+        <v>41800</v>
       </c>
       <c r="I8" s="3">
-        <v>110000</v>
+        <v>33700</v>
       </c>
       <c r="J8" s="3">
         <v>38500</v>
@@ -811,7 +811,7 @@
         <v>28400</v>
       </c>
       <c r="E9" s="3">
-        <v>39000</v>
+        <v>17100</v>
       </c>
       <c r="F9" s="3">
         <v>13500</v>
@@ -820,10 +820,10 @@
         <v>8400</v>
       </c>
       <c r="H9" s="3">
-        <v>16400</v>
+        <v>13800</v>
       </c>
       <c r="I9" s="3">
-        <v>37000</v>
+        <v>10400</v>
       </c>
       <c r="J9" s="3">
         <v>12800</v>
@@ -867,7 +867,7 @@
         <v>33600</v>
       </c>
       <c r="E10" s="3">
-        <v>76900</v>
+        <v>25600</v>
       </c>
       <c r="F10" s="3">
         <v>26700</v>
@@ -876,10 +876,10 @@
         <v>24600</v>
       </c>
       <c r="H10" s="3">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="I10" s="3">
-        <v>73000</v>
+        <v>23300</v>
       </c>
       <c r="J10" s="3">
         <v>25700</v>
@@ -945,7 +945,7 @@
         <v>13100</v>
       </c>
       <c r="E12" s="3">
-        <v>26100</v>
+        <v>9400</v>
       </c>
       <c r="F12" s="3">
         <v>8400</v>
@@ -954,10 +954,10 @@
         <v>8300</v>
       </c>
       <c r="H12" s="3">
-        <v>12800</v>
+        <v>4100</v>
       </c>
       <c r="I12" s="3">
-        <v>26200</v>
+        <v>3100</v>
       </c>
       <c r="J12" s="3">
         <v>7800</v>
@@ -1188,7 +1188,7 @@
         <v>146700</v>
       </c>
       <c r="E17" s="3">
-        <v>272100</v>
+        <v>106700</v>
       </c>
       <c r="F17" s="3">
         <v>91800</v>
@@ -1197,10 +1197,10 @@
         <v>73600</v>
       </c>
       <c r="H17" s="3">
-        <v>96800</v>
+        <v>81700</v>
       </c>
       <c r="I17" s="3">
-        <v>232900</v>
+        <v>61600</v>
       </c>
       <c r="J17" s="3">
         <v>79800</v>
@@ -1244,7 +1244,7 @@
         <v>-84700</v>
       </c>
       <c r="E18" s="3">
-        <v>-156200</v>
+        <v>-64000</v>
       </c>
       <c r="F18" s="3">
         <v>-51600</v>
@@ -1253,10 +1253,10 @@
         <v>-40600</v>
       </c>
       <c r="H18" s="3">
-        <v>-47500</v>
+        <v>-39900</v>
       </c>
       <c r="I18" s="3">
-        <v>-122900</v>
+        <v>-27900</v>
       </c>
       <c r="J18" s="3">
         <v>-41300</v>
@@ -1319,10 +1319,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
-        <v>14500</v>
+        <v>-2500</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1331,10 +1331,10 @@
         <v>15900</v>
       </c>
       <c r="H20" s="3">
-        <v>-6600</v>
+        <v>-5800</v>
       </c>
       <c r="I20" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="J20" s="3">
         <v>-1500</v>
@@ -1375,10 +1375,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-82000</v>
+        <v>-81200</v>
       </c>
       <c r="E21" s="3">
-        <v>-134600</v>
+        <v>-64100</v>
       </c>
       <c r="F21" s="3">
         <v>-48800</v>
@@ -1387,10 +1387,10 @@
         <v>-22800</v>
       </c>
       <c r="H21" s="3">
-        <v>-50900</v>
+        <v>-43700</v>
       </c>
       <c r="I21" s="3">
-        <v>-120500</v>
+        <v>-30100</v>
       </c>
       <c r="J21" s="3">
         <v>-40300</v>
@@ -1487,10 +1487,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-84700</v>
+        <v>-83800</v>
       </c>
       <c r="E23" s="3">
-        <v>-141700</v>
+        <v>-66500</v>
       </c>
       <c r="F23" s="3">
         <v>-51500</v>
@@ -1499,10 +1499,10 @@
         <v>-24700</v>
       </c>
       <c r="H23" s="3">
-        <v>-54100</v>
+        <v>-45700</v>
       </c>
       <c r="I23" s="3">
-        <v>-126600</v>
+        <v>-31600</v>
       </c>
       <c r="J23" s="3">
         <v>-42800</v>
@@ -1555,10 +1555,10 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="I24" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="J24" s="3">
         <v>500</v>
@@ -1655,10 +1655,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-85000</v>
+        <v>-84200</v>
       </c>
       <c r="E26" s="3">
-        <v>-141800</v>
+        <v>-66600</v>
       </c>
       <c r="F26" s="3">
         <v>-51200</v>
@@ -1667,10 +1667,10 @@
         <v>-24900</v>
       </c>
       <c r="H26" s="3">
-        <v>-55500</v>
+        <v>-46900</v>
       </c>
       <c r="I26" s="3">
-        <v>-128200</v>
+        <v>-32400</v>
       </c>
       <c r="J26" s="3">
         <v>-43300</v>
@@ -1711,10 +1711,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-85000</v>
+        <v>-84200</v>
       </c>
       <c r="E27" s="3">
-        <v>-141700</v>
+        <v>-66500</v>
       </c>
       <c r="F27" s="3">
         <v>-51200</v>
@@ -1723,10 +1723,10 @@
         <v>-24900</v>
       </c>
       <c r="H27" s="3">
-        <v>-55700</v>
+        <v>-47100</v>
       </c>
       <c r="I27" s="3">
-        <v>-128000</v>
+        <v>-32300</v>
       </c>
       <c r="J27" s="3">
         <v>-43300</v>
@@ -1991,10 +1991,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
-        <v>-14500</v>
+        <v>2500</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2003,10 +2003,10 @@
         <v>-15900</v>
       </c>
       <c r="H32" s="3">
-        <v>6600</v>
+        <v>5800</v>
       </c>
       <c r="I32" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J32" s="3">
         <v>1500</v>
@@ -2047,10 +2047,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-85000</v>
+        <v>-84200</v>
       </c>
       <c r="E33" s="3">
-        <v>-141700</v>
+        <v>-66500</v>
       </c>
       <c r="F33" s="3">
         <v>-51200</v>
@@ -2059,10 +2059,10 @@
         <v>-24900</v>
       </c>
       <c r="H33" s="3">
-        <v>-55700</v>
+        <v>-47100</v>
       </c>
       <c r="I33" s="3">
-        <v>-128000</v>
+        <v>-32300</v>
       </c>
       <c r="J33" s="3">
         <v>-43300</v>
@@ -2159,10 +2159,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-85000</v>
+        <v>-84200</v>
       </c>
       <c r="E35" s="3">
-        <v>-141700</v>
+        <v>-66500</v>
       </c>
       <c r="F35" s="3">
         <v>-51200</v>
@@ -2171,10 +2171,10 @@
         <v>-24900</v>
       </c>
       <c r="H35" s="3">
-        <v>-55700</v>
+        <v>-47100</v>
       </c>
       <c r="I35" s="3">
-        <v>-128000</v>
+        <v>-32300</v>
       </c>
       <c r="J35" s="3">
         <v>-43300</v>
@@ -2432,7 +2432,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23200</v>
+        <v>23600</v>
       </c>
       <c r="E43" s="3">
         <v>17700</v>
@@ -2600,7 +2600,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>552600</v>
+        <v>553000</v>
       </c>
       <c r="E46" s="3">
         <v>224100</v>
@@ -3048,7 +3048,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>577700</v>
+        <v>578100</v>
       </c>
       <c r="E54" s="3">
         <v>642400</v>
@@ -3148,7 +3148,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>75400</v>
+        <v>76100</v>
       </c>
       <c r="E57" s="3">
         <v>70400</v>
@@ -3260,7 +3260,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>74900</v>
+        <v>74600</v>
       </c>
       <c r="E59" s="3">
         <v>71500</v>
@@ -3316,7 +3316,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>154200</v>
+        <v>154600</v>
       </c>
       <c r="E60" s="3">
         <v>145300</v>
@@ -3652,7 +3652,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>164700</v>
+        <v>165100</v>
       </c>
       <c r="E66" s="3">
         <v>155100</v>
@@ -4351,10 +4351,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-85000</v>
+        <v>-84200</v>
       </c>
       <c r="E81" s="3">
-        <v>-141700</v>
+        <v>-66500</v>
       </c>
       <c r="F81" s="3">
         <v>-51200</v>
@@ -4363,10 +4363,10 @@
         <v>-24900</v>
       </c>
       <c r="H81" s="3">
-        <v>-55700</v>
+        <v>-47100</v>
       </c>
       <c r="I81" s="3">
-        <v>-128000</v>
+        <v>-32300</v>
       </c>
       <c r="J81" s="3">
         <v>-43300</v>
@@ -4432,7 +4432,7 @@
         <v>2600</v>
       </c>
       <c r="E83" s="3">
-        <v>7000</v>
+        <v>2400</v>
       </c>
       <c r="F83" s="3">
         <v>2700</v>
@@ -4441,10 +4441,10 @@
         <v>1900</v>
       </c>
       <c r="H83" s="3">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="I83" s="3">
-        <v>6100</v>
+        <v>1500</v>
       </c>
       <c r="J83" s="3">
         <v>2500</v>
@@ -4765,10 +4765,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-63500</v>
+        <v>-63600</v>
       </c>
       <c r="E89" s="3">
-        <v>-107600</v>
+        <v>-46000</v>
       </c>
       <c r="F89" s="3">
         <v>-32100</v>
@@ -4780,7 +4780,7 @@
         <v>-26600</v>
       </c>
       <c r="I89" s="3">
-        <v>-71900</v>
+        <v>-20600</v>
       </c>
       <c r="J89" s="3">
         <v>-12000</v>
@@ -4846,7 +4846,7 @@
         <v>-4400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2700</v>
+        <v>-800</v>
       </c>
       <c r="F91" s="3">
         <v>-1600</v>
@@ -4858,7 +4858,7 @@
         <v>-600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1300</v>
+        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
@@ -5014,7 +5014,7 @@
         <v>-3100</v>
       </c>
       <c r="E94" s="3">
-        <v>-401700</v>
+        <v>-400100</v>
       </c>
       <c r="F94" s="3">
         <v>-1400</v>
@@ -5023,10 +5023,10 @@
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>6400</v>
+        <v>-500</v>
       </c>
       <c r="I94" s="3">
-        <v>60600</v>
+        <v>-7900</v>
       </c>
       <c r="J94" s="3">
         <v>6500</v>
@@ -5316,7 +5316,7 @@
         <v>-1400</v>
       </c>
       <c r="E100" s="3">
-        <v>335700</v>
+        <v>-1700</v>
       </c>
       <c r="F100" s="3">
         <v>137100</v>
@@ -5325,10 +5325,10 @@
         <v>200200</v>
       </c>
       <c r="H100" s="3">
-        <v>229000</v>
+        <v>191000</v>
       </c>
       <c r="I100" s="3">
-        <v>-3900</v>
+        <v>-700</v>
       </c>
       <c r="J100" s="3">
         <v>-1700</v>
@@ -5372,7 +5372,7 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>-15300</v>
+        <v>-4900</v>
       </c>
       <c r="F101" s="3">
         <v>-20600</v>
@@ -5381,10 +5381,10 @@
         <v>10200</v>
       </c>
       <c r="H101" s="3">
-        <v>11300</v>
+        <v>-6200</v>
       </c>
       <c r="I101" s="3">
-        <v>-7600</v>
+        <v>-5100</v>
       </c>
       <c r="J101" s="3">
         <v>-2600</v>
@@ -5428,7 +5428,7 @@
         <v>-67900</v>
       </c>
       <c r="E102" s="3">
-        <v>-189000</v>
+        <v>-452700</v>
       </c>
       <c r="F102" s="3">
         <v>83100</v>
@@ -5437,10 +5437,10 @@
         <v>180700</v>
       </c>
       <c r="H102" s="3">
-        <v>206100</v>
+        <v>157800</v>
       </c>
       <c r="I102" s="3">
-        <v>-22900</v>
+        <v>-27900</v>
       </c>
       <c r="J102" s="3">
         <v>-16100</v>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>JMIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>47600</v>
+      </c>
+      <c r="F8" s="3">
         <v>62000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>42700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>40200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>33000</v>
       </c>
-      <c r="H8" s="3">
-        <v>41800</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>159400</v>
+      </c>
+      <c r="K8" s="3">
         <v>33700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>38500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>32300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>49300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>49100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>46100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>38000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>50200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>37200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>27500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>31100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F9" s="3">
         <v>28400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>17100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>13500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8400</v>
       </c>
-      <c r="H9" s="3">
-        <v>13800</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>53400</v>
+      </c>
+      <c r="K9" s="3">
         <v>10400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>12800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>12000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>24400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>26900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>25800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>19300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>33200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>23400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>17600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>21700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F10" s="3">
         <v>33600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>25600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>26700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>24600</v>
       </c>
-      <c r="H10" s="3">
-        <v>28000</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>106000</v>
+      </c>
+      <c r="K10" s="3">
         <v>23300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>25700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>20300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>24900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>22200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>20300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>18700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>17000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>13800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>9900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>9300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +962,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F12" s="3">
         <v>13100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>9400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>8400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>8300</v>
       </c>
-      <c r="H12" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>8600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>5900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>6000</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1121,18 +1167,18 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K15" s="3">
         <v>1900</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1145,11 +1191,11 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,53 +1231,55 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>114000</v>
+      </c>
+      <c r="F17" s="3">
         <v>146700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>106700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>91800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>73600</v>
       </c>
-      <c r="H17" s="3">
-        <v>81700</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>329700</v>
+      </c>
+      <c r="K17" s="3">
         <v>61600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>79800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>80500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>110400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>116000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>124600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>92500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1235,53 +1289,59 @@
       <c r="T17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-84700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-64000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-51600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-40600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-39900</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-170300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-27900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-41300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-48200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-61100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-66800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-78400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-54500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1291,8 +1351,14 @@
       <c r="T18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,53 +1379,55 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>15900</v>
       </c>
-      <c r="H20" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1369,53 +1437,59 @@
       <c r="T20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-81200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-64100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-48800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-22800</v>
       </c>
-      <c r="H21" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-171500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-30100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-40300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-44400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-60700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-58900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-77400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-52700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1425,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1561,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-68700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-83800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-66500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-51500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-24700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-45700</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-180700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-31600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-42800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-46500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-63100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-61400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-79500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-54700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="3">
         <v>-37300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K24" s="3">
         <v>800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>500</v>
+      </c>
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,53 +1747,59 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-84200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-66600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-51200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-24900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-46900</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-183700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-32400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-43300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-46600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-63600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-61100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-79700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-54800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1705,53 +1809,59 @@
       <c r="T26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-84200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-66500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-51200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-24900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-183700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-32300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-43300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-46600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-63500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-61000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-79600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-54700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1761,8 +1871,14 @@
       <c r="T27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,53 +2119,59 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-15900</v>
       </c>
-      <c r="H32" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K32" s="3">
         <v>3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2041,53 +2181,59 @@
       <c r="T32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-84200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-66500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-51200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-24900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-183700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-32300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-43300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-46600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-63500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-61000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-79600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-54700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2097,8 +2243,14 @@
       <c r="T33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,53 +2305,59 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-84200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-66500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-51200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-24900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-183700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-32300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-43300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-46600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-63500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-61000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-79600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-54700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2209,69 +2367,81 @@
       <c r="T35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2486,55 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>88700</v>
+      </c>
+      <c r="F41" s="3">
         <v>117100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>184900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>637700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>485600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>373900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>147100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>170000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>191100</v>
       </c>
       <c r="L41" s="3">
         <v>170000</v>
       </c>
       <c r="M41" s="3">
+        <v>191100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>170000</v>
+      </c>
+      <c r="O41" s="3">
         <v>278200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>391700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>158100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2370,47 +2544,53 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>332600</v>
+      </c>
+      <c r="F42" s="3">
         <v>395700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>62400</v>
-      </c>
-      <c r="K42" s="3">
-        <v>400</v>
       </c>
       <c r="L42" s="3">
         <v>62400</v>
       </c>
       <c r="M42" s="3">
+        <v>400</v>
+      </c>
+      <c r="N42" s="3">
+        <v>62400</v>
+      </c>
+      <c r="O42" s="3">
         <v>78600</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2426,53 +2606,59 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F43" s="3">
         <v>23600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>17700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>18200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>101800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>17700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>16300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>23100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>21300</v>
       </c>
       <c r="L43" s="3">
         <v>23100</v>
       </c>
       <c r="M43" s="3">
+        <v>21300</v>
+      </c>
+      <c r="N43" s="3">
+        <v>23100</v>
+      </c>
+      <c r="O43" s="3">
         <v>25900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>30800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>22500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2482,53 +2668,59 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F44" s="3">
         <v>10900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>9900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>11400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>8100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>8200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>7700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>9000</v>
       </c>
       <c r="L44" s="3">
         <v>10000</v>
       </c>
       <c r="M44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O44" s="3">
         <v>12600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>16500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>13200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2538,53 +2730,59 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F45" s="3">
         <v>5700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>10500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>10900</v>
       </c>
       <c r="G45" s="3">
         <v>10500</v>
       </c>
       <c r="H45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J45" s="3">
         <v>23200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>12600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>12400</v>
       </c>
       <c r="L45" s="3">
         <v>12600</v>
       </c>
       <c r="M45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="N45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="O45" s="3">
         <v>10400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>10000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>15200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2594,53 +2792,59 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>419800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>479400</v>
+      </c>
+      <c r="F46" s="3">
         <v>553000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>224100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>679200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>606900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>413800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>178100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>278100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>234300</v>
       </c>
       <c r="L46" s="3">
         <v>278100</v>
       </c>
       <c r="M46" s="3">
+        <v>234300</v>
+      </c>
+      <c r="N46" s="3">
+        <v>278100</v>
+      </c>
+      <c r="O46" s="3">
         <v>405600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>449100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>209000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,53 +2916,59 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F48" s="3">
         <v>21800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>18800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>19800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>16100</v>
       </c>
-      <c r="H48" s="3">
-        <v>36900</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K48" s="3">
         <v>15500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>17400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>18000</v>
       </c>
       <c r="L48" s="3">
         <v>17400</v>
       </c>
       <c r="M48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="N48" s="3">
+        <v>17400</v>
+      </c>
+      <c r="O48" s="3">
         <v>21400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>18500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2762,52 +2978,58 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3">
-        <v>400</v>
-      </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
       </c>
       <c r="H49" s="3">
+        <v>400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>400</v>
+      </c>
+      <c r="J49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>100</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3164,59 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>399100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1800</v>
       </c>
       <c r="I52" s="3">
         <v>1500</v>
       </c>
       <c r="J52" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L52" s="3">
         <v>1600</v>
       </c>
       <c r="M52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3288,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>451500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>503700</v>
+      </c>
+      <c r="F54" s="3">
         <v>578100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>642400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>701900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>624900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>436500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>195600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>297200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>253700</v>
       </c>
       <c r="L54" s="3">
         <v>297200</v>
       </c>
       <c r="M54" s="3">
+        <v>253700</v>
+      </c>
+      <c r="N54" s="3">
+        <v>297200</v>
+      </c>
+      <c r="O54" s="3">
         <v>429000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>470900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>229600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3402,55 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>79000</v>
+      </c>
+      <c r="F57" s="3">
         <v>76100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>70400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>72200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>61600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>75800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>52400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>56400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>48200</v>
       </c>
       <c r="L57" s="3">
         <v>56400</v>
       </c>
       <c r="M57" s="3">
+        <v>48200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>56400</v>
+      </c>
+      <c r="O57" s="3">
         <v>67000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>74300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>70100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3198,53 +3460,59 @@
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2900</v>
       </c>
       <c r="L58" s="3">
         <v>3100</v>
       </c>
       <c r="M58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3254,53 +3522,59 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>66400</v>
+      </c>
+      <c r="F59" s="3">
         <v>74600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>71500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>71700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>58900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>70900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>54500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>47600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>48300</v>
       </c>
       <c r="L59" s="3">
         <v>47600</v>
       </c>
       <c r="M59" s="3">
+        <v>48300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>47600</v>
+      </c>
+      <c r="O59" s="3">
         <v>54100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>52800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>51300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3310,52 +3584,58 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>157400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>149600</v>
+      </c>
+      <c r="F60" s="3">
         <v>154600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>145300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>147400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>123700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>150300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>109500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>107100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>99400</v>
       </c>
       <c r="L60" s="3">
         <v>107100</v>
       </c>
       <c r="M60" s="3">
-        <v>125500</v>
+        <v>99400</v>
       </c>
       <c r="N60" s="3">
-        <v>131200</v>
+        <v>107100</v>
       </c>
       <c r="O60" s="3">
         <v>125500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
+      <c r="P60" s="3">
+        <v>131200</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>125500</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
@@ -3366,53 +3646,59 @@
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F61" s="3">
         <v>8600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>8600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>8000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>9800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>6800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>7300</v>
       </c>
       <c r="L61" s="3">
         <v>6100</v>
       </c>
       <c r="M61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="O61" s="3">
         <v>8100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>7700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3422,53 +3708,59 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1500</v>
       </c>
       <c r="I62" s="3">
         <v>1200</v>
       </c>
       <c r="J62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K62" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="M62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3956,59 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>159100</v>
+      </c>
+      <c r="F66" s="3">
         <v>165100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>155100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>158100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>132500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>161200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>116800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>114100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>107500</v>
       </c>
       <c r="L66" s="3">
         <v>114100</v>
       </c>
       <c r="M66" s="3">
+        <v>107500</v>
+      </c>
+      <c r="N66" s="3">
+        <v>114100</v>
+      </c>
+      <c r="O66" s="3">
         <v>133200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>138600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>132500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4290,59 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1688800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1626100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1557600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1480900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1423900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1185500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1422700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1101600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-992000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1028900</v>
       </c>
       <c r="L72" s="3">
         <v>-992000</v>
       </c>
       <c r="M72" s="3">
+        <v>-1028900</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-992000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1143700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1050100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1004600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4538,59 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>281800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>344600</v>
+      </c>
+      <c r="F76" s="3">
         <v>413000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>487300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>543800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>492400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>275300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>78800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>183100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>146200</v>
       </c>
       <c r="L76" s="3">
         <v>183100</v>
       </c>
       <c r="M76" s="3">
+        <v>146200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>183100</v>
+      </c>
+      <c r="O76" s="3">
         <v>295800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>332300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>97000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,114 +4662,126 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-84200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-66500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-51200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-24900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-183700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-32300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-43300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-46600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-63500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-61000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-79600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-54700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>8</v>
       </c>
@@ -4401,8 +4791,14 @@
       <c r="T81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,53 +4819,55 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G83" s="3">
         <v>2400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,53 +5187,59 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-63600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-46000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-32100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-29500</v>
       </c>
-      <c r="H89" s="3">
-        <v>-26600</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-98500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-20600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-39300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-51000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-52300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-58400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-47000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,53 +5277,55 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-600</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,53 +5459,59 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>49900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-400100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>67000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>6500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>62000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-78600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,53 +5793,59 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>137100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200200</v>
       </c>
-      <c r="H100" s="3">
-        <v>191000</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>225000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>296600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>85200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5363,53 +5855,59 @@
       <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-20600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>10200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2600</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5419,53 +5917,59 @@
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-67900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-452700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>83100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>180700</v>
       </c>
-      <c r="H102" s="3">
-        <v>157800</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>183300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-27900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-16100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>21100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-57100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-129700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>236200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>37800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>8</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>JMIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,308 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50500</v>
+      </c>
+      <c r="F8" s="3">
         <v>57300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>47600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>62000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>42700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>40200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>33000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>159400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>33700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>38500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>32300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>49300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>49100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>46100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>38000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>50200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>37200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>27500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>31100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F9" s="3">
         <v>26900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>19900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>28400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>17100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>13500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>8400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>53400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>12800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>12000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>24400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>26900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>25800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>19300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>33200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>23400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>17600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>21700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F10" s="3">
         <v>30400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>27700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>33600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>25600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>26700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>24600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>106000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>23300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>25700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>20300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>24900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>22200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>20300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>18700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>17000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>13800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>9900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>9300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F12" s="3">
         <v>14300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>13000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>13100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>9400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>8400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>8300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>16700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>8600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>7000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>5900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,18 +1218,18 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>9300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1197,11 +1242,11 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1212,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,59 +1284,61 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>93600</v>
+      </c>
+      <c r="F17" s="3">
         <v>125100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>114000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>146700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>106700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>91800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>73600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>329700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>61600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>79800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>80500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>110400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>116000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>124600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>92500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1295,59 +1348,65 @@
       <c r="V17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-67800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-66400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-84700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-64000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-51600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-40600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-170300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-27900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-41300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-48200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-61100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-66800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-78400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-54500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1357,8 +1416,14 @@
       <c r="V18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,59 +1446,61 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>15900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-10400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1443,59 +1510,65 @@
       <c r="V20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-65800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-66700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-81200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-64100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-48800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-22800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-171500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-30100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-40300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-44400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-60700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-58900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-77400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-52700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1505,8 +1578,14 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-68700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-69300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-83800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-66500</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-51500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-24700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-180700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-31600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-42800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-46500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-63100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-61400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-79500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-54700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="3">
         <v>-37300</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>500</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,59 +1850,65 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-69000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-69500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-84200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-66600</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-51200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-24900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-183700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-32400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-43300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-46600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-63600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-61100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-79700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-54800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1815,59 +1918,65 @@
       <c r="V26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-69000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-69500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-84200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-66500</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-51200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-24900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-183700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-32300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-43300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-46600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-63500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-61000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-79600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-54700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1877,8 +1986,14 @@
       <c r="V27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,59 +2258,65 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-15900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>10400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,59 +2326,65 @@
       <c r="V32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-69000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-69500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-84200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-66500</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-51200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-24900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-183700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-32300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-43300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-46600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-63500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-61000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-79600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-54700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2249,8 +2394,14 @@
       <c r="V33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,59 +2462,65 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-69000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-69500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-84200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-66500</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-51200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-24900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-183700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-32300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-43300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-46600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-63500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-61000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-79600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-54700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2373,75 +2530,87 @@
       <c r="V35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,59 +2659,61 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>104300</v>
+      </c>
+      <c r="F41" s="3">
         <v>53800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>88700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>117100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>184900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>637700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>485600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>373900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>147100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>170000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>191100</v>
       </c>
       <c r="N41" s="3">
         <v>170000</v>
       </c>
       <c r="O41" s="3">
+        <v>191100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>170000</v>
+      </c>
+      <c r="Q41" s="3">
         <v>278200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>391700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>158100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2550,53 +2723,59 @@
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>180500</v>
+      </c>
+      <c r="F42" s="3">
         <v>297000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>332600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>395700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>62400</v>
-      </c>
-      <c r="M42" s="3">
-        <v>400</v>
       </c>
       <c r="N42" s="3">
         <v>62400</v>
       </c>
       <c r="O42" s="3">
+        <v>400</v>
+      </c>
+      <c r="P42" s="3">
+        <v>62400</v>
+      </c>
+      <c r="Q42" s="3">
         <v>78600</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2612,59 +2791,65 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F43" s="3">
         <v>39000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>27800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>23600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>17700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>18200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>101800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>17700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>16300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>23100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>21300</v>
       </c>
       <c r="N43" s="3">
         <v>23100</v>
       </c>
       <c r="O43" s="3">
+        <v>21300</v>
+      </c>
+      <c r="P43" s="3">
+        <v>23100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>25900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>30800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>22500</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2674,59 +2859,65 @@
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F44" s="3">
         <v>18000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>16600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>10900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>9900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>11400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>8100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>9000</v>
       </c>
       <c r="N44" s="3">
         <v>10000</v>
       </c>
       <c r="O44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q44" s="3">
         <v>12600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>16500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>13200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2736,59 +2927,65 @@
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F45" s="3">
         <v>12000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>13700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>10500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>10900</v>
       </c>
       <c r="I45" s="3">
         <v>10500</v>
       </c>
       <c r="J45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="L45" s="3">
         <v>23200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>12600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>12400</v>
       </c>
       <c r="N45" s="3">
         <v>12600</v>
       </c>
       <c r="O45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="P45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="Q45" s="3">
         <v>10400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>10000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>15200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2798,59 +2995,65 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>297400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>336900</v>
+      </c>
+      <c r="F46" s="3">
         <v>419800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>479400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>553000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>224100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>679200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>606900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>413800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>178100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>278100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>234300</v>
       </c>
       <c r="N46" s="3">
         <v>278100</v>
       </c>
       <c r="O46" s="3">
+        <v>234300</v>
+      </c>
+      <c r="P46" s="3">
+        <v>278100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>405600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>449100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>209000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2860,8 +3063,14 @@
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,59 +3131,65 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F48" s="3">
         <v>28100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>20800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>21800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>18800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>19800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>16100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>15500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>17400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>18000</v>
       </c>
       <c r="N48" s="3">
         <v>17400</v>
       </c>
       <c r="O48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="P48" s="3">
+        <v>17400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>21400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>19700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>18500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2984,58 +3199,64 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>200</v>
+      </c>
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
       </c>
       <c r="J49" s="3">
+        <v>400</v>
+      </c>
+      <c r="K49" s="3">
+        <v>400</v>
+      </c>
+      <c r="L49" s="3">
         <v>500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>500</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+      <c r="S49" s="3">
+        <v>100</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,59 +3403,65 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F52" s="3">
         <v>3300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>399100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1800</v>
       </c>
       <c r="K52" s="3">
         <v>1500</v>
       </c>
       <c r="L52" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N52" s="3">
         <v>1600</v>
       </c>
       <c r="O52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3232,8 +3471,14 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,59 +3539,65 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>330100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>368300</v>
+      </c>
+      <c r="F54" s="3">
         <v>451500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>503700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>578100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>642400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>701900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>624900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>436500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>195600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>297200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>253700</v>
       </c>
       <c r="N54" s="3">
         <v>297200</v>
       </c>
       <c r="O54" s="3">
+        <v>253700</v>
+      </c>
+      <c r="P54" s="3">
+        <v>297200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>429000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>470900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>229600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3356,8 +3607,14 @@
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,59 +3663,61 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F57" s="3">
         <v>90400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>79000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>76100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>70400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>72200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>61600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>75800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>52400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>56400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>48200</v>
       </c>
       <c r="N57" s="3">
         <v>56400</v>
       </c>
       <c r="O57" s="3">
+        <v>48200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>56400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>67000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>74300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>70100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3466,59 +3727,65 @@
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F58" s="3">
         <v>4700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2900</v>
       </c>
       <c r="N58" s="3">
         <v>3100</v>
       </c>
       <c r="O58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3528,59 +3795,65 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>61000</v>
+      </c>
+      <c r="F59" s="3">
         <v>62300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>66400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>74600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>71500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>71700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>58900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>70900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>54500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>47600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>48300</v>
       </c>
       <c r="N59" s="3">
         <v>47600</v>
       </c>
       <c r="O59" s="3">
+        <v>48300</v>
+      </c>
+      <c r="P59" s="3">
+        <v>47600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>54100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>52800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>51300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3590,58 +3863,64 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>128600</v>
+      </c>
+      <c r="F60" s="3">
         <v>157400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>149600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>154600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>145300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>147400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>123700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>150300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>109500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>107100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>99400</v>
       </c>
       <c r="N60" s="3">
         <v>107100</v>
       </c>
       <c r="O60" s="3">
-        <v>125500</v>
+        <v>99400</v>
       </c>
       <c r="P60" s="3">
-        <v>131200</v>
+        <v>107100</v>
       </c>
       <c r="Q60" s="3">
         <v>125500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
+      <c r="R60" s="3">
+        <v>131200</v>
+      </c>
+      <c r="S60" s="3">
+        <v>125500</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
@@ -3652,59 +3931,65 @@
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F61" s="3">
         <v>10800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>8600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>8600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>9300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>8000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6800</v>
-      </c>
-      <c r="L61" s="3">
-        <v>6100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>7300</v>
       </c>
       <c r="N61" s="3">
         <v>6100</v>
       </c>
       <c r="O61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>8100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>7700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>7200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3714,59 +3999,65 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1500</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
       </c>
       <c r="L62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M62" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="O62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3776,8 +4067,14 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,59 +4271,65 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>154900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>140100</v>
+      </c>
+      <c r="F66" s="3">
         <v>169600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>159100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>165100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>155100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>158100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>132500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>161200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>116800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>114100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>107500</v>
       </c>
       <c r="N66" s="3">
         <v>114100</v>
       </c>
       <c r="O66" s="3">
+        <v>107500</v>
+      </c>
+      <c r="P66" s="3">
+        <v>114100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>133200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>138600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>132500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4024,8 +4339,14 @@
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,59 +4637,65 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1797000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1743900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1688800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1626100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1557600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1480900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1423900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1185500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1422700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1101600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-992000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1028900</v>
       </c>
       <c r="N72" s="3">
         <v>-992000</v>
       </c>
       <c r="O72" s="3">
+        <v>-1028900</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-992000</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1143700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1050100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1004600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4358,8 +4705,14 @@
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,59 +4909,65 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>175200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>228200</v>
+      </c>
+      <c r="F76" s="3">
         <v>281800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>344600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>413000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>487300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>543800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>492400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>275300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>78800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>183100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>146200</v>
       </c>
       <c r="N76" s="3">
         <v>183100</v>
       </c>
       <c r="O76" s="3">
+        <v>146200</v>
+      </c>
+      <c r="P76" s="3">
+        <v>183100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>295800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>332300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>97000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4606,8 +4977,14 @@
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,126 +5045,138 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-69000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-69500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-84200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-66500</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-51200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-24900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-183700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-32300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-43300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-46600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-63500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-61000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-79600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-54700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>8</v>
       </c>
@@ -4797,8 +5186,14 @@
       <c r="V81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,59 +5216,61 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>9300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,59 +5620,65 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-58300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-75500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-63600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-46000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-32100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-29500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-98500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-20600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-39300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-51000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-52300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-58400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-47000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5255,8 +5688,14 @@
       <c r="V89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,59 +5718,61 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2000</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
       </c>
       <c r="L91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
@@ -5341,8 +5782,14 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,59 +5918,65 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>109500</v>
+      </c>
+      <c r="F94" s="3">
         <v>28300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>49900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-400100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>67000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>62000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-78600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5527,8 +5986,14 @@
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,59 +6284,65 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>137100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>225000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>296600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>85200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5861,59 +6352,65 @@
       <c r="V100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-4900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-20600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>10200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-5100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2600</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5923,59 +6420,65 @@
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>50500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-34900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-28400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-67900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-452700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>83100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>180700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>183300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-27900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-16100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>21100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-57100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-129700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>236200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>37800</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5983,6 +6486,12 @@
         <v>8</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -5735,7 +5735,7 @@
         <v>-3700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H91" s="3">
         <v>-4400</v>
@@ -5744,7 +5744,7 @@
         <v>-800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>JMIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,334 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>46300</v>
+      </c>
+      <c r="F8" s="3">
         <v>66500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>50500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>57300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>47600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>62000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>42700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>40200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>33000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>159400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>33700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>38500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>32300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>49300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>49100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>46100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>38000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>50200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>37200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>27500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>31100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25400</v>
+        <v>22500</v>
       </c>
       <c r="E9" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>27100</v>
+      </c>
+      <c r="G9" s="3">
         <v>17500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>26900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>19900</v>
       </c>
-      <c r="H9" s="3">
-        <v>28400</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K9" s="3">
         <v>17100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>13500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>53400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>24400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>26900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>25800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>19300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>33200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>23400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>17600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>21700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>41100</v>
+        <v>26000</v>
       </c>
       <c r="E10" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>39400</v>
+      </c>
+      <c r="G10" s="3">
         <v>33000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>30400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>27700</v>
       </c>
-      <c r="H10" s="3">
-        <v>33600</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K10" s="3">
         <v>25600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>26700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>24600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>106000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>23300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>25700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>20300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>24900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>22200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>20300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>18700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>17000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>13800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>9900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>9300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1017,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14500</v>
+        <v>11100</v>
       </c>
       <c r="E12" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G12" s="3">
         <v>13600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>14300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>13000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>13100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>9400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>16700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>8600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>7000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>7800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>5900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>6000</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1224,18 +1270,18 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>9300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1248,11 +1294,11 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,65 +1338,67 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>116300</v>
+        <v>71800</v>
       </c>
       <c r="E17" s="3">
+        <v>77100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>116100</v>
+      </c>
+      <c r="G17" s="3">
         <v>93600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>125100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>114000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>146700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>106700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>91800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>73600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>329700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>61600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>79800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>80500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>110400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>116000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>124600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>92500</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1354,65 +1408,71 @@
       <c r="X17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-49800</v>
+        <v>-23300</v>
       </c>
       <c r="E18" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-43100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-67800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-66400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-84700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-64000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-51600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-40600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-170300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-27900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-41300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-48200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-61100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-66800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-78400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-54500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1422,8 +1482,14 @@
       <c r="X18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,65 +1514,67 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>600</v>
+        <v>-8800</v>
       </c>
       <c r="E20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
-        <v>900</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>15900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-10400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>5500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1516,65 +1584,71 @@
       <c r="X20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-46200</v>
+        <v>-29400</v>
       </c>
       <c r="E21" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-40600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-65800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-66700</v>
       </c>
-      <c r="H21" s="3">
-        <v>-81200</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-82200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-63100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-48800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-22800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-171500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-30100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-40300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-44400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-60700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-58900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-77400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-52700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1584,8 +1658,14 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1732,162 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-49200</v>
+        <v>-32100</v>
       </c>
       <c r="E23" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-43800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-68700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-69300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-83800</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-84800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-65500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-51500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-24700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-180700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-31600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-42800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-46500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-63100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-61400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-79500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-54700</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-37300</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5700</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>500</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>500</v>
+      </c>
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,65 +1954,71 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-54900</v>
+        <v>-31900</v>
       </c>
       <c r="E26" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-44600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-69000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-69500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-84200</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-65600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-51200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-24900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-183700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-32400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-43300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-46600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-63600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-61100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-79700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-54800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1924,65 +2028,71 @@
       <c r="X26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-54800</v>
+        <v>-31900</v>
       </c>
       <c r="E27" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-44600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-69000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-69500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-84200</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-65600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-51200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-24900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-183700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-32300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-43300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-46600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-63500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-61000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-79600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-54700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1992,8 +2102,14 @@
       <c r="X27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,65 +2398,71 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-600</v>
+        <v>8800</v>
       </c>
       <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-15900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>10400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-5500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2332,65 +2472,71 @@
       <c r="X32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-54800</v>
+        <v>-31900</v>
       </c>
       <c r="E33" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-44600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-69000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-69500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-84200</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-65600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-51200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-24900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-183700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-32300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-43300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-46600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-63500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-61000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-79600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-54700</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2400,8 +2546,14 @@
       <c r="X33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,65 +2620,71 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-54800</v>
+        <v>-31900</v>
       </c>
       <c r="E35" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-44600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-69000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-69500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-84200</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-65600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-51200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-24900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-183700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-32300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-43300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-46600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-63500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-61000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-79600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-54700</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2536,81 +2694,93 @@
       <c r="X35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2833,67 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>72100</v>
+        <v>61000</v>
       </c>
       <c r="E41" s="3">
+        <v>86900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>71600</v>
+      </c>
+      <c r="G41" s="3">
         <v>104300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>53800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>88700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>117100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>184900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>637700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>485600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>373900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>147100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>170000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>191100</v>
       </c>
       <c r="P41" s="3">
         <v>170000</v>
       </c>
       <c r="Q41" s="3">
+        <v>191100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>170000</v>
+      </c>
+      <c r="S41" s="3">
         <v>278200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>391700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>158100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2729,59 +2903,65 @@
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>155700</v>
+        <v>105300</v>
       </c>
       <c r="E42" s="3">
+        <v>118600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>155800</v>
+      </c>
+      <c r="G42" s="3">
         <v>180500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>297000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>332600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>395700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1000</v>
-      </c>
-      <c r="N42" s="3">
-        <v>62400</v>
-      </c>
-      <c r="O42" s="3">
-        <v>400</v>
       </c>
       <c r="P42" s="3">
         <v>62400</v>
       </c>
       <c r="Q42" s="3">
+        <v>400</v>
+      </c>
+      <c r="R42" s="3">
+        <v>62400</v>
+      </c>
+      <c r="S42" s="3">
         <v>78600</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,65 +2977,71 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38300</v>
+        <v>30800</v>
       </c>
       <c r="E43" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>31300</v>
+      </c>
+      <c r="G43" s="3">
         <v>28700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>39000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>27800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>23600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>17700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>18200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>101800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>17700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>16300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>23100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>21300</v>
       </c>
       <c r="P43" s="3">
         <v>23100</v>
       </c>
       <c r="Q43" s="3">
+        <v>21300</v>
+      </c>
+      <c r="R43" s="3">
+        <v>23100</v>
+      </c>
+      <c r="S43" s="3">
         <v>25900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>30800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>22500</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2865,65 +3051,71 @@
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F44" s="3">
         <v>11400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>12200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>18000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>16600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>10900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>9900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>11400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>8100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>8200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>7700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>9000</v>
       </c>
       <c r="P44" s="3">
         <v>10000</v>
       </c>
       <c r="Q44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="R44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="S44" s="3">
         <v>12600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>16500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>13200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2933,65 +3125,71 @@
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19900</v>
+        <v>15700</v>
       </c>
       <c r="E45" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>21300</v>
+      </c>
+      <c r="G45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>12000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>13700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>10900</v>
       </c>
       <c r="K45" s="3">
         <v>10500</v>
       </c>
       <c r="L45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="M45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N45" s="3">
         <v>23200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>12600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>12400</v>
       </c>
       <c r="P45" s="3">
         <v>12600</v>
       </c>
       <c r="Q45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="R45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="S45" s="3">
         <v>10400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>10000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>15200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3001,65 +3199,71 @@
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>297400</v>
+        <v>223600</v>
       </c>
       <c r="E46" s="3">
+        <v>265700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>291500</v>
+      </c>
+      <c r="G46" s="3">
         <v>336900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>419800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>479400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>553000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>224100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>679200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>606900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>413800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>178100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>278100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>234300</v>
       </c>
       <c r="P46" s="3">
         <v>278100</v>
       </c>
       <c r="Q46" s="3">
+        <v>234300</v>
+      </c>
+      <c r="R46" s="3">
+        <v>278100</v>
+      </c>
+      <c r="S46" s="3">
         <v>405600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>449100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>209000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,65 +3347,71 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F48" s="3">
         <v>28500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>27400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>28100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>20800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>21800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>18800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>19800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>16100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>20300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>15500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>17400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>18000</v>
       </c>
       <c r="P48" s="3">
         <v>17400</v>
       </c>
       <c r="Q48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="R48" s="3">
+        <v>17400</v>
+      </c>
+      <c r="S48" s="3">
         <v>21400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>19700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>18500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3205,64 +3421,70 @@
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>100</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
       </c>
       <c r="L49" s="3">
+        <v>400</v>
+      </c>
+      <c r="M49" s="3">
+        <v>400</v>
+      </c>
+      <c r="N49" s="3">
         <v>500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>500</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+      <c r="U49" s="3">
+        <v>100</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,65 +3643,71 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="E52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>399100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1800</v>
       </c>
       <c r="M52" s="3">
         <v>1500</v>
       </c>
       <c r="N52" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="O52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="P52" s="3">
         <v>1600</v>
       </c>
       <c r="Q52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S52" s="3">
         <v>2000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3791,71 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>330100</v>
+        <v>248900</v>
       </c>
       <c r="E54" s="3">
+        <v>300100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>330200</v>
+      </c>
+      <c r="G54" s="3">
         <v>368300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>451500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>503700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>578100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>642400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>701900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>624900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>436500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>195600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>297200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>253700</v>
       </c>
       <c r="P54" s="3">
         <v>297200</v>
       </c>
       <c r="Q54" s="3">
+        <v>253700</v>
+      </c>
+      <c r="R54" s="3">
+        <v>297200</v>
+      </c>
+      <c r="S54" s="3">
         <v>429000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>470900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>229600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,65 +3925,67 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>62800</v>
+        <v>62100</v>
       </c>
       <c r="E57" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>64200</v>
+      </c>
+      <c r="G57" s="3">
         <v>63000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>90400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>79000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>76100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>70400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>72200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>61600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>75800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>52400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>56400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>48200</v>
       </c>
       <c r="P57" s="3">
         <v>56400</v>
       </c>
       <c r="Q57" s="3">
+        <v>48200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>56400</v>
+      </c>
+      <c r="S57" s="3">
         <v>67000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>74300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>70100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3733,65 +3995,71 @@
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F58" s="3">
         <v>5100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2900</v>
       </c>
       <c r="P58" s="3">
         <v>3100</v>
       </c>
       <c r="Q58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S58" s="3">
         <v>4500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3801,65 +4069,71 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>76500</v>
+        <v>72100</v>
       </c>
       <c r="E59" s="3">
+        <v>76200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>73800</v>
+      </c>
+      <c r="G59" s="3">
         <v>61000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>62300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>66400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>74600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>71500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>71700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>58900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>70900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>54500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>47600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>48300</v>
       </c>
       <c r="P59" s="3">
         <v>47600</v>
       </c>
       <c r="Q59" s="3">
+        <v>48300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>47600</v>
+      </c>
+      <c r="S59" s="3">
         <v>54100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>52800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>51300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3869,64 +4143,70 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>144400</v>
+        <v>138100</v>
       </c>
       <c r="E60" s="3">
+        <v>148300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>143200</v>
+      </c>
+      <c r="G60" s="3">
         <v>128600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>157400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>149600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>154600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>145300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>147400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>123700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>150300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>109500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>107100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>99400</v>
       </c>
       <c r="P60" s="3">
         <v>107100</v>
       </c>
       <c r="Q60" s="3">
-        <v>125500</v>
+        <v>99400</v>
       </c>
       <c r="R60" s="3">
-        <v>131200</v>
+        <v>107100</v>
       </c>
       <c r="S60" s="3">
         <v>125500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
+      <c r="T60" s="3">
+        <v>131200</v>
+      </c>
+      <c r="U60" s="3">
+        <v>125500</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
@@ -3937,65 +4217,71 @@
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F61" s="3">
         <v>8700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>8600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>8600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>8000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6800</v>
-      </c>
-      <c r="N61" s="3">
-        <v>6100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>7300</v>
       </c>
       <c r="P61" s="3">
         <v>6100</v>
       </c>
       <c r="Q61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="S61" s="3">
         <v>8100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>7700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>7200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4005,65 +4291,71 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="E62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1500</v>
       </c>
       <c r="M62" s="3">
         <v>1200</v>
       </c>
       <c r="N62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="O62" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="Q62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4587,71 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>154900</v>
+        <v>142600</v>
       </c>
       <c r="E66" s="3">
+        <v>156800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>155500</v>
+      </c>
+      <c r="G66" s="3">
         <v>140100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>169600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>159100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>165100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>155100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>158100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>132500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>161200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>116800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>114100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>107500</v>
       </c>
       <c r="P66" s="3">
         <v>114100</v>
       </c>
       <c r="Q66" s="3">
+        <v>107500</v>
+      </c>
+      <c r="R66" s="3">
+        <v>114100</v>
+      </c>
+      <c r="S66" s="3">
         <v>133200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>138600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>132500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4985,71 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1797000</v>
+        <v>-1866900</v>
       </c>
       <c r="E72" s="3">
+        <v>-1828800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1797400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1743900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1688800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1626100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1557600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1480900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1423900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1185500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1422700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1101600</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-992000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1028900</v>
       </c>
       <c r="P72" s="3">
         <v>-992000</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1028900</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-992000</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1143700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1050100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1004600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4711,8 +5059,14 @@
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5281,71 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>175200</v>
+        <v>106300</v>
       </c>
       <c r="E76" s="3">
+        <v>143300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>174700</v>
+      </c>
+      <c r="G76" s="3">
         <v>228200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>281800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>344600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>413000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>487300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>543800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>492400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>275300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>78800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>183100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>146200</v>
       </c>
       <c r="P76" s="3">
         <v>183100</v>
       </c>
       <c r="Q76" s="3">
+        <v>146200</v>
+      </c>
+      <c r="R76" s="3">
+        <v>183100</v>
+      </c>
+      <c r="S76" s="3">
         <v>295800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>332300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>97000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,138 +5429,150 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-54800</v>
+        <v>-31900</v>
       </c>
       <c r="E81" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-44600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-69000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-69500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-84200</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-65600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-51200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-24900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-183700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-32300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-43300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-46600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-63500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-61000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-79600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-54700</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>8</v>
       </c>
@@ -5192,8 +5582,14 @@
       <c r="X81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,65 +5614,67 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2000</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,65 +6054,71 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-52600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-53700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-58300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-75500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-63600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-46000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-32100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-29500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-98500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-20600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-12000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-39300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-52300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-58400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-47000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5694,8 +6128,14 @@
       <c r="X89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,65 +6160,67 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-2000</v>
       </c>
       <c r="M91" s="3">
         <v>-400</v>
       </c>
       <c r="N91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,65 +6378,71 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>25000</v>
+        <v>15400</v>
       </c>
       <c r="E94" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>24500</v>
+      </c>
+      <c r="G94" s="3">
         <v>109500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>28300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>49900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-400100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>67000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>6500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>62000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-78600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,65 +6776,71 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>137100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>225000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>296600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>85200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>8</v>
       </c>
@@ -6358,65 +6850,71 @@
       <c r="X100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2200</v>
+        <v>-19000</v>
       </c>
       <c r="E101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-4900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-20600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>10200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2600</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6426,65 +6924,71 @@
       <c r="X101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-32100</v>
+        <v>-25800</v>
       </c>
       <c r="E102" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="G102" s="3">
         <v>50500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-34900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-28400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-67900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-452700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>83100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>180700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>183300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-27900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-16100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>21100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-57100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-129700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>236200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>37800</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
@@ -6492,6 +6996,12 @@
         <v>8</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JMIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>JMIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E8" s="3">
         <v>48500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>46300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>66500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>50500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>57300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>47600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>62000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>159400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>49300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>49100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>46100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>38000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>50200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>37200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>27500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>31100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E9" s="3">
         <v>22500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>28800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>24400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>26900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>25800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>33200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>23400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>17600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>21700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E10" s="3">
         <v>26000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>39400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>106000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>17000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>9900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>9300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E12" s="3">
         <v>11100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6000</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1276,15 +1299,15 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>9300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1900</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1300,8 +1323,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,68 +1366,69 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>71800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>77100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>116100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>93600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>125100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>114000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>146700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>106700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>91800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>73600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>329700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>79800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>80500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>110400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>116000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>124600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>92500</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1414,68 +1441,71 @@
       <c r="Z17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-30800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-49600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-43100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-67800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-66400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-84700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-64000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-51600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-40600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-170300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-41300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-48200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-61100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-66800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-78400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-54500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1488,8 +1518,11 @@
       <c r="Z18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,68 +1549,69 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1590,68 +1624,71 @@
       <c r="Z20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-46500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-40600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-65800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-66700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-82200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-63100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-48800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-22800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-171500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-30100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-40300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-44400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-60700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-58900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-77400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-52700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1664,8 +1701,11 @@
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,156 +1778,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-49500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-68700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-69300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-84800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-65500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-51500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-24700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-180700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-31600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-42800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-46500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-63100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-61400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-79500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-54700</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-37300</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,68 +2009,71 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-55300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-44600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-69000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-69500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-85100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-65600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-51200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-183700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-32400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-46600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-63600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-61100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-79700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-54800</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2034,68 +2086,71 @@
       <c r="Z26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-55200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-44600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-69000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-69500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-85100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-65600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-51200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-183700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-32300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-46600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-63500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-61000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-79600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-54700</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2108,8 +2163,11 @@
       <c r="Z27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,68 +2471,71 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>8800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2478,68 +2548,71 @@
       <c r="Z32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-55200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-44600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-69000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-69500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-85100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-65600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-51200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-183700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-32300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-46600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-63500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-61000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-79600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-54700</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2552,8 +2625,11 @@
       <c r="Z33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,68 +2702,71 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-55200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-44600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-69000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-69500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-85100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-65600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-51200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-183700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-32300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-46600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-63500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-61000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-79600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-54700</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2700,87 +2779,93 @@
       <c r="Z35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,68 +2921,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E41" s="3">
         <v>61000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>86900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>71600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>88700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>117100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>184900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>637700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>485600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>373900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>147100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>170000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>191100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>170000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>278200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>391700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>158100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2909,62 +2996,65 @@
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E42" s="3">
         <v>105300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>118600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>155800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>180500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>297000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>332600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>395700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1000</v>
       </c>
       <c r="L42" s="3">
         <v>1000</v>
       </c>
       <c r="M42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N42" s="3">
         <v>900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>62400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>62400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>78600</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2983,68 +3073,71 @@
       <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E43" s="3">
         <v>30800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>101800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>23100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>30800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>22500</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3057,68 +3150,71 @@
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E44" s="3">
         <v>10700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>16600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>13200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3131,68 +3227,71 @@
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E45" s="3">
         <v>15700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3205,68 +3304,71 @@
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E46" s="3">
         <v>223600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>265700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>291500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>336900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>419800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>479400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>553000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>224100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>679200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>606900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>413800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>178100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>278100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>234300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>278100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>405600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>449100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>209000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,68 +3458,71 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E48" s="3">
         <v>18400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3441,20 +3552,20 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>200</v>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
       </c>
       <c r="K49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>400</v>
@@ -3463,13 +3574,13 @@
         <v>400</v>
       </c>
       <c r="N49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3478,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T49" s="3">
         <v>100</v>
@@ -3486,8 +3597,8 @@
       <c r="U49" s="3">
         <v>100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
+      <c r="V49" s="3">
+        <v>100</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,68 +3766,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E52" s="3">
         <v>7000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>10300</v>
       </c>
       <c r="F52" s="3">
         <v>10300</v>
       </c>
       <c r="G52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H52" s="3">
         <v>3800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>399100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1600</v>
-      </c>
-      <c r="S52" s="3">
-        <v>2000</v>
       </c>
       <c r="T52" s="3">
         <v>2000</v>
       </c>
       <c r="U52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V52" s="3">
         <v>1900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3920,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>215700</v>
+      </c>
+      <c r="E54" s="3">
         <v>248900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>330200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>368300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>451500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>503700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>578100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>642400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>701900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>624900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>436500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>195600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>297200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>253700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>297200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>429000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>470900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>229600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,68 +4057,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E57" s="3">
         <v>62100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>68000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>90400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>79000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>76100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>70400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>72200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>61600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>75800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>52400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>56400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>48200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>56400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>67000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>74300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>70100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4001,68 +4132,71 @@
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3500</v>
       </c>
       <c r="L58" s="3">
         <v>3500</v>
       </c>
       <c r="M58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4075,68 +4209,71 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E59" s="3">
         <v>72100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>76200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>73800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>61000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>62300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>66400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>70900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>52800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>51300</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4149,68 +4286,71 @@
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E60" s="3">
         <v>138100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>148300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>143200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>128600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>157400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>149600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>154600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>145300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>147400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>123700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>150300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>109500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>107100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>99400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>107100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>125500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>131200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>125500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4223,68 +4363,71 @@
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E61" s="3">
         <v>4000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>8600</v>
       </c>
       <c r="K61" s="3">
         <v>8600</v>
       </c>
       <c r="L61" s="3">
+        <v>8600</v>
+      </c>
+      <c r="M61" s="3">
         <v>9300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7200</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4297,49 +4440,52 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1400</v>
       </c>
       <c r="Q62" s="3">
         <v>1400</v>
@@ -4347,18 +4493,18 @@
       <c r="R62" s="3">
         <v>1400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>1400</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4748,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E66" s="3">
         <v>142600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>156800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>155500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>140100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>169600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>159100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>165100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>155100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>158100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>132500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>161200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>116800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>114100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>107500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>114100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>133200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>138600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>132500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4667,8 +4825,11 @@
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,68 +5162,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1885900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1866900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1828800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1797400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1743900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1688800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1626100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1557600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1480900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1423900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1185500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1422700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1101600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-992000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1028900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-992000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1143700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1050100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1004600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5470,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E76" s="3">
         <v>106300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>143300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>174700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>228200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>281800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>344600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>413000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>487300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>543800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>492400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>275300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>78800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>183100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>146200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>183100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>295800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>332300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>97000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,147 +5624,153 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-55200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-44600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-69000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-69500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-85100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-65600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-51200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-183700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-32300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-46600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-63500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-61000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-79600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-54700</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>8</v>
       </c>
@@ -5588,8 +5783,11 @@
       <c r="Z81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,68 +5814,69 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2600</v>
       </c>
       <c r="J83" s="3">
         <v>2600</v>
       </c>
       <c r="K83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2000</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,68 +6274,71 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-52600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-53700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-58300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-75500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-63600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-46000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-32100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-29500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-98500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-39300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-51000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-52300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-58400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-47000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>8</v>
       </c>
@@ -6134,8 +6351,11 @@
       <c r="Z89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6171,59 +6392,59 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-500</v>
       </c>
       <c r="Q91" s="3">
         <v>-500</v>
       </c>
       <c r="R91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,68 +6611,71 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E94" s="3">
         <v>15400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>38400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>24500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>109500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>28300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>49900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>67000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>62000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-78600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,68 +7025,71 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>137100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>225000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>296600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>85200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>8</v>
       </c>
@@ -6856,68 +7102,71 @@
       <c r="Z100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-19000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-20600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6930,68 +7179,71 @@
       <c r="Z101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-32700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-28400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-67900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-452700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>83100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>180700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>183300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-27900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>21100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-57100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-129700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>236200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>37800</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>8</v>
       </c>
@@ -7002,6 +7254,9 @@
         <v>8</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
